--- a/Jeddah Retail Sales.xlsx
+++ b/Jeddah Retail Sales.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hassa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hassa\Desktop\مشاريع\01-Jeddah Retail Sales ( Power BI + Excel )\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8799E2AB-4022-4062-9675-D511D441EF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8B24A2-0AF6-4892-8557-8B7C60516172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{B6A751F0-CDDB-4D2B-B078-E912A3D02C13}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="577">
   <si>
     <t>Order ID</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Profit</t>
   </si>
   <si>
-    <t>SA-2024-001</t>
-  </si>
-  <si>
     <t>Ahmad Al-Ghamdi</t>
   </si>
   <si>
@@ -89,12 +86,6 @@
     <t>Mobile Phones</t>
   </si>
   <si>
-    <t>iPhone 15 Pro</t>
-  </si>
-  <si>
-    <t>SA-2024-002</t>
-  </si>
-  <si>
     <t>Sara Al-Otaibi</t>
   </si>
   <si>
@@ -104,12 +95,6 @@
     <t>Women Clothing</t>
   </si>
   <si>
-    <t>Black Abaya Premium</t>
-  </si>
-  <si>
-    <t>SA-2024-003</t>
-  </si>
-  <si>
     <t>Mohammed Al-Zahrani</t>
   </si>
   <si>
@@ -122,9 +107,6 @@
     <t>Coffee Machine</t>
   </si>
   <si>
-    <t>SA-2024-004</t>
-  </si>
-  <si>
     <t>Nora Al-Qahtani</t>
   </si>
   <si>
@@ -134,12 +116,6 @@
     <t>Perfumes</t>
   </si>
   <si>
-    <t>Creed Aventus</t>
-  </si>
-  <si>
-    <t>SA-2024-005</t>
-  </si>
-  <si>
     <t>Khalid Al-Mutairi</t>
   </si>
   <si>
@@ -152,36 +128,18 @@
     <t>Laptops</t>
   </si>
   <si>
-    <t>Lenovo ThinkPad X1</t>
-  </si>
-  <si>
-    <t>SA-2024-006</t>
-  </si>
-  <si>
     <t>Fatima Al-Harbi</t>
   </si>
   <si>
     <t>Men Clothing</t>
   </si>
   <si>
-    <t>White Thobe Luxury</t>
-  </si>
-  <si>
-    <t>SA-2024-007</t>
-  </si>
-  <si>
     <t>Ali Al-Dosari</t>
   </si>
   <si>
     <t>Accessories</t>
   </si>
   <si>
-    <t>AirPods Pro 2</t>
-  </si>
-  <si>
-    <t>SA-2024-008</t>
-  </si>
-  <si>
     <t>Reem Al-Shahrani</t>
   </si>
   <si>
@@ -197,54 +155,21 @@
     <t>Furniture</t>
   </si>
   <si>
-    <t>Office Desk</t>
-  </si>
-  <si>
-    <t>SA-2024-009</t>
-  </si>
-  <si>
-    <t>Abdulrahman Al-Shehri</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy Tab S9</t>
-  </si>
-  <si>
-    <t>SA-2024-010</t>
-  </si>
-  <si>
     <t>Lama Al-Ghamdi</t>
   </si>
   <si>
     <t>Watches</t>
   </si>
   <si>
-    <t>Rolex Datejust</t>
-  </si>
-  <si>
-    <t>SA-2024-011</t>
-  </si>
-  <si>
     <t>Omar Al-Nasser</t>
   </si>
   <si>
-    <t>Samsung S24 Ultra</t>
-  </si>
-  <si>
-    <t>SA-2024-012</t>
-  </si>
-  <si>
     <t>Hind Al-Subaie</t>
   </si>
   <si>
     <t>Skincare</t>
   </si>
   <si>
-    <t>La Mer Set</t>
-  </si>
-  <si>
-    <t>SA-2024-013</t>
-  </si>
-  <si>
     <t>Turki Al-Otaibi</t>
   </si>
   <si>
@@ -254,367 +179,1594 @@
     <t>Air Conditioner</t>
   </si>
   <si>
-    <t>SA-2024-014</t>
-  </si>
-  <si>
     <t>Leen Al-Qurashi</t>
   </si>
   <si>
-    <t>SA-2024-015</t>
-  </si>
-  <si>
     <t>Sultan Al-Ghamdi</t>
   </si>
   <si>
     <t>Gaming</t>
   </si>
   <si>
-    <t>SA-2024-016</t>
-  </si>
-  <si>
     <t>Nouf Al-Harbi</t>
   </si>
   <si>
-    <t>Chanel No.5</t>
-  </si>
-  <si>
-    <t>SA-2024-017</t>
-  </si>
-  <si>
     <t>Yousef Al-Zahrani</t>
   </si>
   <si>
-    <t>SA-2024-018</t>
-  </si>
-  <si>
     <t>Maha Al-Ajmi</t>
   </si>
   <si>
-    <t>SA-2024-019</t>
-  </si>
-  <si>
     <t>Amal Al-Shamrani</t>
   </si>
   <si>
-    <t>SA-2024-020</t>
-  </si>
-  <si>
     <t>Bader Al-Mutairi</t>
   </si>
   <si>
-    <t>SA-2024-021</t>
-  </si>
-  <si>
     <t>Rawan Al-Ghamdi</t>
   </si>
   <si>
     <t>Makeup Set</t>
   </si>
   <si>
-    <t>SA-2024-022</t>
-  </si>
-  <si>
     <t>Faisal Al-Qahtani</t>
   </si>
   <si>
-    <t>SA-2024-023</t>
-  </si>
-  <si>
     <t>Layan Al-Otaibi</t>
   </si>
   <si>
     <t>Jewelry</t>
   </si>
   <si>
-    <t>SA-2024-024</t>
-  </si>
-  <si>
     <t>Khaled Al-Harbi</t>
   </si>
   <si>
-    <t>SA-2024-025</t>
-  </si>
-  <si>
     <t>Shaden Al-Dosari</t>
   </si>
   <si>
-    <t>Tom Ford Oud Wood</t>
-  </si>
-  <si>
-    <t>SA-2024-026</t>
-  </si>
-  <si>
     <t>Hassan Al-Ghamdi</t>
   </si>
   <si>
-    <t>SA-2024-027</t>
-  </si>
-  <si>
     <t>Mariam Al-Zahrani</t>
   </si>
   <si>
-    <t>SA-2024-028</t>
-  </si>
-  <si>
     <t>Abdulaziz Al-Shahrani</t>
   </si>
   <si>
-    <t>PS5 Pro Bundle</t>
-  </si>
-  <si>
-    <t>SA-2024-029</t>
-  </si>
-  <si>
     <t>Dana Al-Qurashi</t>
   </si>
   <si>
-    <t>SA-2024-030</t>
-  </si>
-  <si>
     <t>Saad Al-Mutairi</t>
   </si>
   <si>
-    <t>Barista Capsule</t>
-  </si>
-  <si>
     <t>Tablets</t>
   </si>
   <si>
-    <t>Split Air Conditioner 24K</t>
-  </si>
-  <si>
-    <t>Designer Handbag Louis Vuitton</t>
-  </si>
-  <si>
-    <t>PlayStation 5 Slim</t>
-  </si>
-  <si>
-    <t>8-Seater Sofa Set</t>
-  </si>
-  <si>
-    <t>MacBook Pro M3 Pro 16"</t>
-  </si>
-  <si>
-    <t>Tailored Luxury Suit</t>
-  </si>
-  <si>
-    <t>iPhone 16 Pro Max</t>
-  </si>
-  <si>
-    <t>Dior Full Makeup Collection</t>
-  </si>
-  <si>
     <t>Smart TV</t>
   </si>
   <si>
-    <t>Samsung 65" QLED 4K</t>
-  </si>
-  <si>
-    <t>21K Gold Necklace Set</t>
-  </si>
-  <si>
     <t>Apple Watch Ultra 2</t>
   </si>
   <si>
-    <t>Marble Dining Table 10 Seats</t>
-  </si>
-  <si>
-    <t>Designer Evening Dress</t>
-  </si>
-  <si>
-    <t>Estee Lauder Advanced Set</t>
-  </si>
-  <si>
-    <t>Dell XPS 14</t>
-  </si>
-  <si>
-    <t>SA-2024-031</t>
-  </si>
-  <si>
     <t>Lina Al-Farhan</t>
   </si>
   <si>
-    <t>Diamond Ring 1 Carat Ring</t>
-  </si>
-  <si>
-    <t>SA-2024-032</t>
-  </si>
-  <si>
     <t>Rayan Al-Qahtani</t>
   </si>
   <si>
     <t>Google Pixel 9 Pro</t>
   </si>
   <si>
-    <t>SA-2024-033</t>
-  </si>
-  <si>
     <t>Hala Al-Enezi</t>
   </si>
   <si>
     <t>Washer</t>
   </si>
   <si>
-    <t>Dryer Combo LG 12kg</t>
-  </si>
-  <si>
-    <t>SA-2024-034</t>
-  </si>
-  <si>
-    <t>Tariq Al-Saud</t>
-  </si>
-  <si>
-    <t>Patek Philippe Nautilus</t>
-  </si>
-  <si>
-    <t>SA-2024-035</t>
-  </si>
-  <si>
     <t>Aseel Al-Ghamdi</t>
   </si>
   <si>
-    <t>YSL Libre Intense</t>
-  </si>
-  <si>
-    <t>SA-2024-036</t>
-  </si>
-  <si>
     <t>Nasser Al-Subaie</t>
   </si>
   <si>
-    <t>King Size Bedroom Set</t>
-  </si>
-  <si>
-    <t>SA-2024-037</t>
-  </si>
-  <si>
     <t>Salma Al-Harbi</t>
   </si>
   <si>
-    <t>Asus ROG Strix Gaming</t>
-  </si>
-  <si>
-    <t>SA-2024-038</t>
-  </si>
-  <si>
     <t>Fahad Al-Otaibi</t>
   </si>
   <si>
     <t>Refrigerator</t>
   </si>
   <si>
-    <t>Samsung Side-by-Side</t>
-  </si>
-  <si>
-    <t>SA-2024-039</t>
-  </si>
-  <si>
     <t>Jouri Al-Shammari</t>
   </si>
   <si>
-    <t>Gucci Silk Abaya</t>
-  </si>
-  <si>
-    <t>SA-2024-040</t>
-  </si>
-  <si>
     <t>Bandar Al-Zahrani</t>
   </si>
   <si>
-    <t>Xbox Series X</t>
-  </si>
-  <si>
-    <t>SA-2024-041</t>
-  </si>
-  <si>
     <t>Latifa Al-Qurashi</t>
   </si>
   <si>
-    <t>La Prairie Platinum Set</t>
-  </si>
-  <si>
-    <t>SA-2024-042</t>
-  </si>
-  <si>
     <t>Mansour Al-Ghamdi</t>
   </si>
   <si>
-    <t>Mac Studio M2 Ultra</t>
-  </si>
-  <si>
-    <t>SA-2024-043</t>
-  </si>
-  <si>
     <t>Raneem Al-Dosari</t>
   </si>
   <si>
-    <t>Cartier Love Bracelet</t>
-  </si>
-  <si>
-    <t>SA-2024-044</t>
-  </si>
-  <si>
     <t>Waleed Al-Mutairi</t>
   </si>
   <si>
     <t>Oven</t>
   </si>
   <si>
-    <t>Built-in Electric Oven</t>
-  </si>
-  <si>
-    <t>SA-2024-045</t>
-  </si>
-  <si>
     <t>Ghada Al-Ajmi</t>
   </si>
   <si>
-    <t>Charlotte Tilbury Full Set</t>
-  </si>
-  <si>
-    <t>SA-2024-046</t>
-  </si>
-  <si>
     <t>Abdullah Al-Harbi</t>
   </si>
   <si>
-    <t>Oppo Find X8 Pro</t>
-  </si>
-  <si>
-    <t>SA-2024-047</t>
-  </si>
-  <si>
     <t>Shahad Al-Shahrani</t>
   </si>
   <si>
-    <t>Arabian Bisht Premium</t>
-  </si>
-  <si>
-    <t>SA-2024-048</t>
-  </si>
-  <si>
     <t>Yara Al-Nasser</t>
   </si>
   <si>
-    <t>TV Unit Modern</t>
-  </si>
-  <si>
-    <t>SA-2024-049</t>
-  </si>
-  <si>
     <t>Ziad Al-Qahtani</t>
   </si>
   <si>
-    <t>HP Spectre x360</t>
-  </si>
-  <si>
-    <t>SA-2024-050</t>
-  </si>
-  <si>
     <t>Maram Al-Ghamdi</t>
   </si>
   <si>
-    <t>Baccarat Rouge 540</t>
+    <t>SA-2025-001</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A55 5G</t>
+  </si>
+  <si>
+    <t>SA-2025-002</t>
+  </si>
+  <si>
+    <t>Warm Winter Black Abaya</t>
+  </si>
+  <si>
+    <t>SA-2025-003</t>
+  </si>
+  <si>
+    <t>Delonghi Dedica Espresso</t>
+  </si>
+  <si>
+    <t>SA-2025-004</t>
+  </si>
+  <si>
+    <t>Lancome La Vie Est Belle 50ml</t>
+  </si>
+  <si>
+    <t>SA-2025-005</t>
+  </si>
+  <si>
+    <t>Lenovo IdeaPad 5 Ryzen 7</t>
+  </si>
+  <si>
+    <t>SA-2025-006</t>
+  </si>
+  <si>
+    <t>Winter White Thobe Cotton</t>
+  </si>
+  <si>
+    <t>SA-2025-007</t>
+  </si>
+  <si>
+    <t>Apple AirPods Pro 2</t>
+  </si>
+  <si>
+    <t>SA-2025-008</t>
+  </si>
+  <si>
+    <t>Ergonomic Office Chair</t>
+  </si>
+  <si>
+    <t>SA-2025-009</t>
+  </si>
+  <si>
+    <t>Casio G-Shock Black</t>
+  </si>
+  <si>
+    <t>SA-2025-010</t>
+  </si>
+  <si>
+    <t>iPhone 15 128GB</t>
+  </si>
+  <si>
+    <t>SA-2025-011</t>
+  </si>
+  <si>
+    <t>The Ordinary Niacinamide Set</t>
+  </si>
+  <si>
+    <t>SA-2025-012</t>
+  </si>
+  <si>
+    <t>18K BTU Split Inverter</t>
+  </si>
+  <si>
+    <t>SA-2025-013</t>
+  </si>
+  <si>
+    <t>Medium Leather Handbag</t>
+  </si>
+  <si>
+    <t>SA-2025-014</t>
+  </si>
+  <si>
+    <t>PlayStation 5 Slim Digital</t>
+  </si>
+  <si>
+    <t>SA-2025-015</t>
+  </si>
+  <si>
+    <t>Dior Sauvage Elixir 60ml</t>
+  </si>
+  <si>
+    <t>SA-2025-016</t>
+  </si>
+  <si>
+    <t>6-Seater Fabric Sofa</t>
+  </si>
+  <si>
+    <t>SA-2025-017</t>
+  </si>
+  <si>
+    <t>HP Pavilion 15 i5</t>
+  </si>
+  <si>
+    <t>SA-2025-018</t>
+  </si>
+  <si>
+    <t>Tailored Winter Suit</t>
+  </si>
+  <si>
+    <t>SA-2025-019</t>
+  </si>
+  <si>
+    <t>Samsung S24 FE</t>
+  </si>
+  <si>
+    <t>SA-2025-020</t>
+  </si>
+  <si>
+    <t>Huda Beauty Mini Palette Set</t>
+  </si>
+  <si>
+    <t>SA-2025-021</t>
+  </si>
+  <si>
+    <t>55" 4K QLED</t>
+  </si>
+  <si>
+    <t>SA-2025-022</t>
+  </si>
+  <si>
+    <t>18K Gold Stud Earrings</t>
+  </si>
+  <si>
+    <t>SA-2025-023</t>
+  </si>
+  <si>
+    <t>Apple Watch SE 44mm</t>
+  </si>
+  <si>
+    <t>SA-2025-024</t>
+  </si>
+  <si>
+    <t>YSL Libre Intense 90ml</t>
+  </si>
+  <si>
+    <t>SA-2025-025</t>
+  </si>
+  <si>
+    <t>Modern Dining Table 8 Seats</t>
+  </si>
+  <si>
+    <t>SA-2025-026</t>
+  </si>
+  <si>
+    <t>Winter Coat Long Black</t>
+  </si>
+  <si>
+    <t>SA-2025-027</t>
+  </si>
+  <si>
+    <t>Xbox Series S 1TB</t>
+  </si>
+  <si>
+    <t>SA-2025-028</t>
+  </si>
+  <si>
+    <t>Estee Lauder DayWear Set</t>
+  </si>
+  <si>
+    <t>SA-2025-029</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 14 Plus</t>
+  </si>
+  <si>
+    <t>SA-2025-030</t>
+  </si>
+  <si>
+    <t>Seiko 5 Automatic</t>
+  </si>
+  <si>
+    <t>SA-2025-031</t>
+  </si>
+  <si>
+    <t>Google Pixel 9</t>
+  </si>
+  <si>
+    <t>SA-2025-032</t>
+  </si>
+  <si>
+    <t>9kg Front Load Inverter</t>
+  </si>
+  <si>
+    <t>SA-2025-033</t>
+  </si>
+  <si>
+    <t>Chanel Chance Eau Tendre 100ml</t>
+  </si>
+  <si>
+    <t>SA-2025-034</t>
+  </si>
+  <si>
+    <t>King Size Bed Frame</t>
+  </si>
+  <si>
+    <t>SA-2025-035</t>
+  </si>
+  <si>
+    <t>Asus VivoBook 15 OLED</t>
+  </si>
+  <si>
+    <t>SA-2025-036</t>
+  </si>
+  <si>
+    <t>550L Side-by-Side</t>
+  </si>
+  <si>
+    <t>SA-2025-037</t>
+  </si>
+  <si>
+    <t>Ramadan Prayer Abaya Premium</t>
+  </si>
+  <si>
+    <t>SA-2025-038</t>
+  </si>
+  <si>
+    <t>Nintendo Switch OLED</t>
+  </si>
+  <si>
+    <t>SA-2025-039</t>
+  </si>
+  <si>
+    <t>Charlotte Tilbury Pillow Talk Set</t>
+  </si>
+  <si>
+    <t>SA-2025-040</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Buds 3 Pro</t>
+  </si>
+  <si>
+    <t>SA-2025-041</t>
+  </si>
+  <si>
+    <t>Silver Necklace + Earrings Set</t>
+  </si>
+  <si>
+    <t>SA-2025-042</t>
+  </si>
+  <si>
+    <t>60cm Built-in Combi Oven</t>
+  </si>
+  <si>
+    <t>SA-2025-043</t>
+  </si>
+  <si>
+    <t>Arabian Oud Kalemat 100ml</t>
+  </si>
+  <si>
+    <t>SA-2025-044</t>
+  </si>
+  <si>
+    <t>Oppo Reno 12 Pro</t>
+  </si>
+  <si>
+    <t>SA-2025-045</t>
+  </si>
+  <si>
+    <t>Ramadan Thobe Luxury</t>
+  </si>
+  <si>
+    <t>SA-2025-046</t>
+  </si>
+  <si>
+    <t>Modern TV Stand 65"</t>
+  </si>
+  <si>
+    <t>SA-2025-047</t>
+  </si>
+  <si>
+    <t>HP Envy x360 14</t>
+  </si>
+  <si>
+    <t>SA-2025-048</t>
+  </si>
+  <si>
+    <t>Lattafa Raghba 100ml</t>
+  </si>
+  <si>
+    <t>SA-2025-049</t>
+  </si>
+  <si>
+    <t>Lama Al-Otaibi</t>
+  </si>
+  <si>
+    <t>Ramadan Special Jalabiya</t>
+  </si>
+  <si>
+    <t>SA-2025-050</t>
+  </si>
+  <si>
+    <t>Fahad Al-Qurashi</t>
+  </si>
+  <si>
+    <t>Realme 13 Pro+</t>
+  </si>
+  <si>
+    <t>SA-2025-051</t>
+  </si>
+  <si>
+    <t>Nada Al-Harbi</t>
+  </si>
+  <si>
+    <t>Eid Designer Abaya Gold Thread</t>
+  </si>
+  <si>
+    <t>SA-2025-052</t>
+  </si>
+  <si>
+    <t>Sami Al-Dosari</t>
+  </si>
+  <si>
+    <t>iPhone 16 128GB</t>
+  </si>
+  <si>
+    <t>SA-2025-053</t>
+  </si>
+  <si>
+    <t>Rania Al-Ghamdi</t>
+  </si>
+  <si>
+    <t>Creed Aventus Clone 100ml</t>
+  </si>
+  <si>
+    <t>SA-2025-054</t>
+  </si>
+  <si>
+    <t>Talal Al-Zahrani</t>
+  </si>
+  <si>
+    <t>65" QLED 4K Eid Deal</t>
+  </si>
+  <si>
+    <t>SA-2025-055</t>
+  </si>
+  <si>
+    <t>Reema Al-Mutairi</t>
+  </si>
+  <si>
+    <t>21K Gold Eid Necklace Set</t>
+  </si>
+  <si>
+    <t>SA-2025-056</t>
+  </si>
+  <si>
+    <t>Khalid Al-Shahrani</t>
+  </si>
+  <si>
+    <t>MacBook Air M3 256GB</t>
+  </si>
+  <si>
+    <t>SA-2025-057</t>
+  </si>
+  <si>
+    <t>Layan Al-Subaie</t>
+  </si>
+  <si>
+    <t>Dior Full Eid Makeup Collection</t>
+  </si>
+  <si>
+    <t>SA-2025-058</t>
+  </si>
+  <si>
+    <t>Omar Al-Ajmi</t>
+  </si>
+  <si>
+    <t>Luxury 10-Seater Sofa Set</t>
+  </si>
+  <si>
+    <t>SA-2025-059</t>
+  </si>
+  <si>
+    <t>Hala Al-Qahtani</t>
+  </si>
+  <si>
+    <t>PS5 Pro Eid Bundle</t>
+  </si>
+  <si>
+    <t>SA-2025-060</t>
+  </si>
+  <si>
+    <t>Abdulaziz Al-Otaibi</t>
+  </si>
+  <si>
+    <t>Eid Luxury Bisht Premium</t>
+  </si>
+  <si>
+    <t>SA-2025-061</t>
+  </si>
+  <si>
+    <t>Nouf Al-Zahrani</t>
+  </si>
+  <si>
+    <t>Chanel Coco Mademoiselle 100ml</t>
+  </si>
+  <si>
+    <t>SA-2025-062</t>
+  </si>
+  <si>
+    <t>Saud Al-Ghamdi</t>
+  </si>
+  <si>
+    <t>Washer Dryer Combo</t>
+  </si>
+  <si>
+    <t>12kg Combo Eid Deal</t>
+  </si>
+  <si>
+    <t>SA-2025-063</t>
+  </si>
+  <si>
+    <t>Mai Al-Harbi</t>
+  </si>
+  <si>
+    <t>Eid Evening Gown Silk</t>
+  </si>
+  <si>
+    <t>SA-2025-064</t>
+  </si>
+  <si>
+    <t>Bader Al-Dosari</t>
+  </si>
+  <si>
+    <t>Samsung S24 Ultra Eid Offer</t>
+  </si>
+  <si>
+    <t>SA-2025-065</t>
+  </si>
+  <si>
+    <t>Lina Al-Qurashi</t>
+  </si>
+  <si>
+    <t>La Prairie Luxury Set</t>
+  </si>
+  <si>
+    <t>SA-2025-066</t>
+  </si>
+  <si>
+    <t>Faisal Al-Shammari</t>
+  </si>
+  <si>
+    <t>Marble Dining Table 12 Seats</t>
+  </si>
+  <si>
+    <t>SA-2025-067</t>
+  </si>
+  <si>
+    <t>Shaden Al-Nasser</t>
+  </si>
+  <si>
+    <t>Cartier-Style Love Bracelet</t>
+  </si>
+  <si>
+    <t>SA-2025-068</t>
+  </si>
+  <si>
+    <t>Turki Al-Mutairi</t>
+  </si>
+  <si>
+    <t>Asus ROG Strix G16</t>
+  </si>
+  <si>
+    <t>SA-2025-069</t>
+  </si>
+  <si>
+    <t>Amal Al-Ghamdi</t>
+  </si>
+  <si>
+    <t>Tom Ford Oud Wood 100ml</t>
+  </si>
+  <si>
+    <t>SA-2025-070</t>
+  </si>
+  <si>
+    <t>Yara Al-Harbi</t>
+  </si>
+  <si>
+    <t>Side-by-Side 700L Eid</t>
+  </si>
+  <si>
+    <t>SA-2025-071</t>
+  </si>
+  <si>
+    <t>Ahmad Al-Qahtani</t>
+  </si>
+  <si>
+    <t>SA-2025-072</t>
+  </si>
+  <si>
+    <t>Rawan Al-Zahrani</t>
+  </si>
+  <si>
+    <t>Eid Maxi Dress Designer</t>
+  </si>
+  <si>
+    <t>SA-2025-073</t>
+  </si>
+  <si>
+    <t>Hind Al-Otaibi</t>
+  </si>
+  <si>
+    <t>Fenty Beauty Full Set</t>
+  </si>
+  <si>
+    <t>SA-2025-074</t>
+  </si>
+  <si>
+    <t>Sultan Al-Shahrani</t>
+  </si>
+  <si>
+    <t>King Bedroom Set Complete</t>
+  </si>
+  <si>
+    <t>SA-2025-075</t>
+  </si>
+  <si>
+    <t>Nora Al-Dosari</t>
+  </si>
+  <si>
+    <t>SA-2025-076</t>
+  </si>
+  <si>
+    <t>Khalid Al-Ajmi</t>
+  </si>
+  <si>
+    <t>Eid Tailored Suit Italian</t>
+  </si>
+  <si>
+    <t>SA-2025-077</t>
+  </si>
+  <si>
+    <t>Leen Al-Ghamdi</t>
+  </si>
+  <si>
+    <t>Maison Francis Baccarat Rouge Clone</t>
+  </si>
+  <si>
+    <t>SA-2025-078</t>
+  </si>
+  <si>
+    <t>Mohammed Al-Qurashi</t>
+  </si>
+  <si>
+    <t>Lenovo Legion Pro 5i</t>
+  </si>
+  <si>
+    <t>SA-2025-079</t>
+  </si>
+  <si>
+    <t>Diamond Stud Earrings 0.5ct</t>
+  </si>
+  <si>
+    <t>SA-2025-080</t>
+  </si>
+  <si>
+    <t>Sara Al-Mutairi</t>
+  </si>
+  <si>
+    <t>24K BTU Split Eid Deal</t>
+  </si>
+  <si>
+    <t>SA-2025-081</t>
+  </si>
+  <si>
+    <t>Ali Al-Zahrani</t>
+  </si>
+  <si>
+    <t>Vivo X100 Pro</t>
+  </si>
+  <si>
+    <t>SA-2025-082</t>
+  </si>
+  <si>
+    <t>Reem Al-Otaibi</t>
+  </si>
+  <si>
+    <t>Drunk Elephant Full Routine</t>
+  </si>
+  <si>
+    <t>SA-2025-083</t>
+  </si>
+  <si>
+    <t>Abdulrahman Al-Shammari</t>
+  </si>
+  <si>
+    <t>Eid Cape Abaya Luxury</t>
+  </si>
+  <si>
+    <t>SA-2025-084</t>
+  </si>
+  <si>
+    <t>Lama Al-Qahtani</t>
+  </si>
+  <si>
+    <t>Xbox Series X + Game Pass</t>
+  </si>
+  <si>
+    <t>SA-2025-085</t>
+  </si>
+  <si>
+    <t>Omar Al-Ghamdi</t>
+  </si>
+  <si>
+    <t>Arabian Oud Madawi 100ml</t>
+  </si>
+  <si>
+    <t>SA-2025-086</t>
+  </si>
+  <si>
+    <t>Hind Al-Dosari</t>
+  </si>
+  <si>
+    <t>Modern Office Desk + Chair</t>
+  </si>
+  <si>
+    <t>SA-2025-087</t>
+  </si>
+  <si>
+    <t>Turki Al-Harbi</t>
+  </si>
+  <si>
+    <t>Surface Pro 11</t>
+  </si>
+  <si>
+    <t>SA-2025-088</t>
+  </si>
+  <si>
+    <t>Leen Al-Zahrani</t>
+  </si>
+  <si>
+    <t>Eid Perfume + Thobe Set</t>
+  </si>
+  <si>
+    <t>SA-2025-089</t>
+  </si>
+  <si>
+    <t>Sultan Al-Qurashi</t>
+  </si>
+  <si>
+    <t>Too Faced Eid Palette Set</t>
+  </si>
+  <si>
+    <t>SA-2025-090</t>
+  </si>
+  <si>
+    <t>Nouf Al-Ajmi</t>
+  </si>
+  <si>
+    <t>75" 8K Mini LED</t>
+  </si>
+  <si>
+    <t>SA-2025-091</t>
+  </si>
+  <si>
+    <t>Yousef Al-Shahrani</t>
+  </si>
+  <si>
+    <t>OnePlus 13</t>
+  </si>
+  <si>
+    <t>SA-2025-092</t>
+  </si>
+  <si>
+    <t>Maha Al-Ghamdi</t>
+  </si>
+  <si>
+    <t>Tennis Bracelet 18K</t>
+  </si>
+  <si>
+    <t>SA-2025-093</t>
+  </si>
+  <si>
+    <t>Amal Al-Otaibi</t>
+  </si>
+  <si>
+    <t>Jo Malone English Pear 100ml</t>
+  </si>
+  <si>
+    <t>SA-2025-094</t>
+  </si>
+  <si>
+    <t>Bader Al-Harbi</t>
+  </si>
+  <si>
+    <t>MSI Katana 15 Gaming</t>
+  </si>
+  <si>
+    <t>SA-2025-095</t>
+  </si>
+  <si>
+    <t>Rawan Al-Qahtani</t>
+  </si>
+  <si>
+    <t>Post-Eid Casual Set</t>
+  </si>
+  <si>
+    <t>SA-2025-096</t>
+  </si>
+  <si>
+    <t>Faisal Al-Dosari</t>
+  </si>
+  <si>
+    <t>Recliner Leather Chair</t>
+  </si>
+  <si>
+    <t>SA-2025-097</t>
+  </si>
+  <si>
+    <t>Layan Al-Zahrani</t>
+  </si>
+  <si>
+    <t>Post-Eid Hydration Set</t>
+  </si>
+  <si>
+    <t>SA-2025-098</t>
+  </si>
+  <si>
+    <t>Khaled Al-Ghamdi</t>
+  </si>
+  <si>
+    <t>Xiaomi 14 Ultra</t>
+  </si>
+  <si>
+    <t>SA-2025-099</t>
+  </si>
+  <si>
+    <t>Shaden Al-Mutairi</t>
+  </si>
+  <si>
+    <t>Summer Light Thobe</t>
+  </si>
+  <si>
+    <t>SA-2025-100</t>
+  </si>
+  <si>
+    <t>Hassan Al-Shammari</t>
+  </si>
+  <si>
+    <t>10kg Front Load Quiet</t>
+  </si>
+  <si>
+    <t>SA-2025-101</t>
+  </si>
+  <si>
+    <t>Mariam Al-Qurashi</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A35</t>
+  </si>
+  <si>
+    <t>SA-2025-102</t>
+  </si>
+  <si>
+    <t>Summer Linen Thobe</t>
+  </si>
+  <si>
+    <t>SA-2025-103</t>
+  </si>
+  <si>
+    <t>Dana Al-Harbi</t>
+  </si>
+  <si>
+    <t>Summer Sunscreen + Hydration Set</t>
+  </si>
+  <si>
+    <t>SA-2025-104</t>
+  </si>
+  <si>
+    <t>Saad Al-Zahrani</t>
+  </si>
+  <si>
+    <t>Portable AC 14K BTU</t>
+  </si>
+  <si>
+    <t>SA-2025-105</t>
+  </si>
+  <si>
+    <t>Lina Al-Ghamdi</t>
+  </si>
+  <si>
+    <t>Anker 20000mAh Power Bank</t>
+  </si>
+  <si>
+    <t>SA-2025-106</t>
+  </si>
+  <si>
+    <t>Rayan Al-Ajmi</t>
+  </si>
+  <si>
+    <t>Light Summer Maxi Dress</t>
+  </si>
+  <si>
+    <t>SA-2025-107</t>
+  </si>
+  <si>
+    <t>Lenovo IdeaPad 3 Student</t>
+  </si>
+  <si>
+    <t>SA-2025-108</t>
+  </si>
+  <si>
+    <t>Tariq Al-Dosari</t>
+  </si>
+  <si>
+    <t>Foldable Outdoor Table Set</t>
+  </si>
+  <si>
+    <t>SA-2025-109</t>
+  </si>
+  <si>
+    <t>Aseel Al-Shahrani</t>
+  </si>
+  <si>
+    <t>Light Aquatic Summer Fragrance</t>
+  </si>
+  <si>
+    <t>SA-2025-110</t>
+  </si>
+  <si>
+    <t>Nasser Al-Mutairi</t>
+  </si>
+  <si>
+    <t>Fan</t>
+  </si>
+  <si>
+    <t>Tower Fan with Remote</t>
+  </si>
+  <si>
+    <t>SA-2025-111</t>
+  </si>
+  <si>
+    <t>Salma Al-Otaibi</t>
+  </si>
+  <si>
+    <t>Realme Narzo 70 Pro</t>
+  </si>
+  <si>
+    <t>SA-2025-112</t>
+  </si>
+  <si>
+    <t>Fahad Al-Ghamdi</t>
+  </si>
+  <si>
+    <t>Summer Short Dishdasha</t>
+  </si>
+  <si>
+    <t>SA-2025-113</t>
+  </si>
+  <si>
+    <t>Jouri Al-Harbi</t>
+  </si>
+  <si>
+    <t>Waterproof Summer Makeup Kit</t>
+  </si>
+  <si>
+    <t>SA-2025-114</t>
+  </si>
+  <si>
+    <t>Nintendo Switch Lite</t>
+  </si>
+  <si>
+    <t>SA-2025-115</t>
+  </si>
+  <si>
+    <t>Beach Chair Set of 4</t>
+  </si>
+  <si>
+    <t>SA-2025-116</t>
+  </si>
+  <si>
+    <t>Mansour Al-Shammari</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Tab A9</t>
+  </si>
+  <si>
+    <t>SA-2025-117</t>
+  </si>
+  <si>
+    <t>Swimwear Cover-up Kaftan</t>
+  </si>
+  <si>
+    <t>SA-2025-118</t>
+  </si>
+  <si>
+    <t>Waleed Al-Ajmi</t>
+  </si>
+  <si>
+    <t>Window AC 18K BTU</t>
+  </si>
+  <si>
+    <t>SA-2025-119</t>
+  </si>
+  <si>
+    <t>Ghada Al-Ghamdi</t>
+  </si>
+  <si>
+    <t>Cool Water Type Summer</t>
+  </si>
+  <si>
+    <t>SA-2025-120</t>
+  </si>
+  <si>
+    <t>Abdullah Al-Otaibi</t>
+  </si>
+  <si>
+    <t>Xiaomi Redmi Note 14</t>
+  </si>
+  <si>
+    <t>SA-2025-121</t>
+  </si>
+  <si>
+    <t>Shahad Al-Zahrani</t>
+  </si>
+  <si>
+    <t>Minimal Silver Anklet Set</t>
+  </si>
+  <si>
+    <t>SA-2025-122</t>
+  </si>
+  <si>
+    <t>Yara Al-Qurashi</t>
+  </si>
+  <si>
+    <t>Camping Chair Folding</t>
+  </si>
+  <si>
+    <t>SA-2025-123</t>
+  </si>
+  <si>
+    <t>Ziad Al-Harbi</t>
+  </si>
+  <si>
+    <t>JBL Charge 5 Speaker</t>
+  </si>
+  <si>
+    <t>SA-2025-124</t>
+  </si>
+  <si>
+    <t>Maram Al-Shammari</t>
+  </si>
+  <si>
+    <t>Oil-Control Summer Set</t>
+  </si>
+  <si>
+    <t>SA-2025-125</t>
+  </si>
+  <si>
+    <t>Summer Linen Abaya</t>
+  </si>
+  <si>
+    <t>SA-2025-126</t>
+  </si>
+  <si>
+    <t>Fahad Al-Dosari</t>
+  </si>
+  <si>
+    <t>HP Pavilion 14 Light</t>
+  </si>
+  <si>
+    <t>SA-2025-127</t>
+  </si>
+  <si>
+    <t>Nada Al-Qahtani</t>
+  </si>
+  <si>
+    <t>Rasasi Hawas 100ml</t>
+  </si>
+  <si>
+    <t>SA-2025-128</t>
+  </si>
+  <si>
+    <t>Sami Al-Zahrani</t>
+  </si>
+  <si>
+    <t>Air Cooler</t>
+  </si>
+  <si>
+    <t>Large Air Cooler 60L</t>
+  </si>
+  <si>
+    <t>SA-2025-129</t>
+  </si>
+  <si>
+    <t>Rania Al-Otaibi</t>
+  </si>
+  <si>
+    <t>Light Summer Bisht</t>
+  </si>
+  <si>
+    <t>SA-2025-130</t>
+  </si>
+  <si>
+    <t>Talal Al-Ghamdi</t>
+  </si>
+  <si>
+    <t>Oppo A79 5G</t>
+  </si>
+  <si>
+    <t>SA-2025-131</t>
+  </si>
+  <si>
+    <t>Reema Al-Harbi</t>
+  </si>
+  <si>
+    <t>Matte Summer Look Set</t>
+  </si>
+  <si>
+    <t>SA-2025-132</t>
+  </si>
+  <si>
+    <t>Portable BBQ Grill</t>
+  </si>
+  <si>
+    <t>SA-2025-133</t>
+  </si>
+  <si>
+    <t>Layan Al-Shahrani</t>
+  </si>
+  <si>
+    <t>Logitech G29 Racing Wheel</t>
+  </si>
+  <si>
+    <t>SA-2025-134</t>
+  </si>
+  <si>
+    <t>Beach Kaftan Printed</t>
+  </si>
+  <si>
+    <t>SA-2025-135</t>
+  </si>
+  <si>
+    <t>Hala Al-Qurashi</t>
+  </si>
+  <si>
+    <t>Versace Dylan Blue 100ml</t>
+  </si>
+  <si>
+    <t>SA-2025-136</t>
+  </si>
+  <si>
+    <t>Abdulaziz Al-Zahrani</t>
+  </si>
+  <si>
+    <t>Acer Aspire 5 i5</t>
+  </si>
+  <si>
+    <t>SA-2025-137</t>
+  </si>
+  <si>
+    <t>Nouf Al-Dosari</t>
+  </si>
+  <si>
+    <t>Shell Necklace Set</t>
+  </si>
+  <si>
+    <t>SA-2025-138</t>
+  </si>
+  <si>
+    <t>18K BTU Portable</t>
+  </si>
+  <si>
+    <t>SA-2025-139</t>
+  </si>
+  <si>
+    <t>Mai Al-Otaibi</t>
+  </si>
+  <si>
+    <t>Vivo Y28</t>
+  </si>
+  <si>
+    <t>SA-2025-140</t>
+  </si>
+  <si>
+    <t>Summer Polo Shirt Pack 5</t>
+  </si>
+  <si>
+    <t>SA-2025-141</t>
+  </si>
+  <si>
+    <t>Lina Al-Qahtani</t>
+  </si>
+  <si>
+    <t>Acne Summer Treatment Set</t>
+  </si>
+  <si>
+    <t>SA-2025-142</t>
+  </si>
+  <si>
+    <t>Inflatable Pool Lounge</t>
+  </si>
+  <si>
+    <t>SA-2025-143</t>
+  </si>
+  <si>
+    <t>Shaden Al-Zahrani</t>
+  </si>
+  <si>
+    <t>Sony WF-1000XM5</t>
+  </si>
+  <si>
+    <t>SA-2025-144</t>
+  </si>
+  <si>
+    <t>Summer Shorts Set</t>
+  </si>
+  <si>
+    <t>SA-2025-145</t>
+  </si>
+  <si>
+    <t>Ceiling Fan 56" Silent</t>
+  </si>
+  <si>
+    <t>SA-2025-146</t>
+  </si>
+  <si>
+    <t>Infinix Hot 50 Pro</t>
+  </si>
+  <si>
+    <t>SA-2025-147</t>
+  </si>
+  <si>
+    <t>Zara Vibrant Leather Type</t>
+  </si>
+  <si>
+    <t>SA-2025-148</t>
+  </si>
+  <si>
+    <t>Summer Cap Pack 3</t>
+  </si>
+  <si>
+    <t>SA-2025-149</t>
+  </si>
+  <si>
+    <t>Honor MagicBook X14</t>
+  </si>
+  <si>
+    <t>SA-2025-150</t>
+  </si>
+  <si>
+    <t>Picnic Table Folding</t>
+  </si>
+  <si>
+    <t>SA-2025-151</t>
+  </si>
+  <si>
+    <t>Lenovo IdeaPad Student Bundle</t>
+  </si>
+  <si>
+    <t>SA-2025-152</t>
+  </si>
+  <si>
+    <t>Back-to-School Uniform Set</t>
+  </si>
+  <si>
+    <t>SA-2025-153</t>
+  </si>
+  <si>
+    <t>Samsung A55 Back-to-School</t>
+  </si>
+  <si>
+    <t>SA-2025-154</t>
+  </si>
+  <si>
+    <t>Study Desk + Chair Combo</t>
+  </si>
+  <si>
+    <t>SA-2025-155</t>
+  </si>
+  <si>
+    <t>Teen Acne Starter Set</t>
+  </si>
+  <si>
+    <t>SA-2025-156</t>
+  </si>
+  <si>
+    <t>iPad 10th Gen 64GB School</t>
+  </si>
+  <si>
+    <t>SA-2025-157</t>
+  </si>
+  <si>
+    <t>Winter Preview Coat</t>
+  </si>
+  <si>
+    <t>SA-2025-158</t>
+  </si>
+  <si>
+    <t>HP Pavilion 15 School Edition</t>
+  </si>
+  <si>
+    <t>SA-2025-159</t>
+  </si>
+  <si>
+    <t>Fall Oud Collection</t>
+  </si>
+  <si>
+    <t>SA-2025-160</t>
+  </si>
+  <si>
+    <t>Winter Thobe Premium</t>
+  </si>
+  <si>
+    <t>SA-2025-161</t>
+  </si>
+  <si>
+    <t>Apple Watch SE School</t>
+  </si>
+  <si>
+    <t>SA-2025-162</t>
+  </si>
+  <si>
+    <t>9kg Inverter Back-to-School</t>
+  </si>
+  <si>
+    <t>SA-2025-163</t>
+  </si>
+  <si>
+    <t>Everyday Gold Hoops</t>
+  </si>
+  <si>
+    <t>SA-2025-164</t>
+  </si>
+  <si>
+    <t>iPhone 16 Standard</t>
+  </si>
+  <si>
+    <t>SA-2025-165</t>
+  </si>
+  <si>
+    <t>Fall Makeup Palette Set</t>
+  </si>
+  <si>
+    <t>SA-2025-166</t>
+  </si>
+  <si>
+    <t>Bookshelf 6 Tiers</t>
+  </si>
+  <si>
+    <t>SA-2025-167</t>
+  </si>
+  <si>
+    <t>MacBook Air M2 512GB</t>
+  </si>
+  <si>
+    <t>SA-2025-168</t>
+  </si>
+  <si>
+    <t>Winter Wool Abaya</t>
+  </si>
+  <si>
+    <t>SA-2025-169</t>
+  </si>
+  <si>
+    <t>Black Friday Early Oud Deal</t>
+  </si>
+  <si>
+    <t>SA-2025-170</t>
+  </si>
+  <si>
+    <t>Samsung S24 Black Friday</t>
+  </si>
+  <si>
+    <t>SA-2025-171</t>
+  </si>
+  <si>
+    <t>Black Friday 18K Gold Set</t>
+  </si>
+  <si>
+    <t>SA-2025-172</t>
+  </si>
+  <si>
+    <t>Asus ROG Black Friday</t>
+  </si>
+  <si>
+    <t>SA-2025-173</t>
+  </si>
+  <si>
+    <t>Black Friday Luxury Set 3pcs</t>
+  </si>
+  <si>
+    <t>SA-2025-174</t>
+  </si>
+  <si>
+    <t>65" OLED Black Friday</t>
+  </si>
+  <si>
+    <t>SA-2025-175</t>
+  </si>
+  <si>
+    <t>Black Friday Designer Coat</t>
+  </si>
+  <si>
+    <t>SA-2025-176</t>
+  </si>
+  <si>
+    <t>PS5 Pro Black Friday Bundle</t>
+  </si>
+  <si>
+    <t>SA-2025-177</t>
+  </si>
+  <si>
+    <t>Black Friday La Mer Set</t>
+  </si>
+  <si>
+    <t>SA-2025-178</t>
+  </si>
+  <si>
+    <t>Black Friday Sofa 3-Seater</t>
+  </si>
+  <si>
+    <t>SA-2025-179</t>
+  </si>
+  <si>
+    <t>iPhone 16 Pro Black Friday</t>
+  </si>
+  <si>
+    <t>SA-2025-180</t>
+  </si>
+  <si>
+    <t>Black Friday Luxury Bisht</t>
+  </si>
+  <si>
+    <t>SA-2025-181</t>
+  </si>
+  <si>
+    <t>Black Friday Full Collection</t>
+  </si>
+  <si>
+    <t>SA-2025-182</t>
+  </si>
+  <si>
+    <t>MacBook Pro M3 Black Friday</t>
+  </si>
+  <si>
+    <t>SA-2025-183</t>
+  </si>
+  <si>
+    <t>Black Friday Diamond Ring</t>
+  </si>
+  <si>
+    <t>SA-2025-184</t>
+  </si>
+  <si>
+    <t>Black Friday Side-by-Side</t>
+  </si>
+  <si>
+    <t>SA-2025-185</t>
+  </si>
+  <si>
+    <t>Samsung Z Fold6 Deal</t>
+  </si>
+  <si>
+    <t>SA-2025-186</t>
+  </si>
+  <si>
+    <t>Black Friday Evening Dress</t>
+  </si>
+  <si>
+    <t>SA-2025-187</t>
+  </si>
+  <si>
+    <t>Black Friday Oud Collection</t>
+  </si>
+  <si>
+    <t>SA-2025-188</t>
+  </si>
+  <si>
+    <t>Xbox Series X Black Friday</t>
+  </si>
+  <si>
+    <t>SA-2025-189</t>
+  </si>
+  <si>
+    <t>Winter Jacket Leather</t>
+  </si>
+  <si>
+    <t>SA-2025-190</t>
+  </si>
+  <si>
+    <t>End-of-Year Dining Set</t>
+  </si>
+  <si>
+    <t>SA-2025-191</t>
+  </si>
+  <si>
+    <t>iPhone 16 Pro Max Final Deal</t>
+  </si>
+  <si>
+    <t>SA-2025-192</t>
+  </si>
+  <si>
+    <t>Year-End Gift Set Luxury</t>
+  </si>
+  <si>
+    <t>SA-2025-193</t>
+  </si>
+  <si>
+    <t>Year-End Gold Bracelet</t>
+  </si>
+  <si>
+    <t>SA-2025-194</t>
+  </si>
+  <si>
+    <t>Final Gaming Laptop Deal</t>
+  </si>
+  <si>
+    <t>SA-2025-195</t>
+  </si>
+  <si>
+    <t>Year-End Full Collection</t>
+  </si>
+  <si>
+    <t>SA-2025-196</t>
+  </si>
+  <si>
+    <t>Final 75" Deal</t>
+  </si>
+  <si>
+    <t>SA-2025-197</t>
+  </si>
+  <si>
+    <t>Year-End Winter Coat</t>
+  </si>
+  <si>
+    <t>SA-2025-198</t>
+  </si>
+  <si>
+    <t>Samsung S25 Pre-Order Bonus</t>
+  </si>
+  <si>
+    <t>SA-2025-199</t>
+  </si>
+  <si>
+    <t>Last Day Luxury Set</t>
+  </si>
+  <si>
+    <t>SA-2025-200</t>
+  </si>
+  <si>
+    <t>Final Luxury Bisht 2025</t>
   </si>
 </sst>
 </file>
@@ -987,25 +2139,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{916ECD0F-4FBA-4C5C-AB47-FBEB68CB2A04}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+      <selection activeCell="A152" sqref="A152:K201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1045,1308 +2197,1308 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45661</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1">
-        <v>45299</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="I2">
-        <v>4299</v>
+        <v>1899</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1250</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45662</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1">
-        <v>45303</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="I3">
-        <v>599</v>
+        <v>649</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3">
-        <v>240</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="B4" s="1">
-        <v>45306</v>
+        <v>45663</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="I4">
-        <v>1199</v>
+        <v>1599</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4">
-        <v>380</v>
+        <v>520</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="B5" s="1">
-        <v>45311</v>
+        <v>45664</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="I5">
-        <v>1399</v>
+        <v>699</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5">
-        <v>550</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="B6" s="1">
-        <v>45325</v>
+        <v>45665</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="I6">
-        <v>6899</v>
+        <v>4399</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1800</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="B7" s="1">
-        <v>45332</v>
+        <v>45666</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="I7">
-        <v>399</v>
+        <v>449</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
       <c r="K7">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="B8" s="1">
-        <v>45340</v>
+        <v>45667</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="I8">
         <v>1099</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="B9" s="1">
-        <v>45356</v>
+        <v>45668</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="I9">
-        <v>2499</v>
+        <v>1999</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9">
-        <v>700</v>
+        <v>720</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="B10" s="1">
-        <v>45363</v>
+        <v>45669</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="I10">
-        <v>3599</v>
+        <v>499</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>950</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="B11" s="1">
-        <v>45371</v>
+        <v>45670</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="I11">
-        <v>48500</v>
+        <v>4299</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11">
-        <v>13500</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="B12" s="1">
-        <v>45383</v>
+        <v>45672</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="I12">
-        <v>4999</v>
+        <v>399</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12">
-        <v>1400</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="B13" s="1">
-        <v>45390</v>
+        <v>45673</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="I13">
-        <v>2150</v>
+        <v>3299</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13">
-        <v>890</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="B14" s="1">
-        <v>45397</v>
+        <v>45675</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I14">
-        <v>2899</v>
+        <v>1599</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14">
-        <v>750</v>
+        <v>620</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="B15" s="1">
-        <v>45414</v>
+        <v>45676</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
         <v>14</v>
       </c>
-      <c r="F15" t="s">
-        <v>20</v>
-      </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I15">
-        <v>8900</v>
+        <v>2399</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15">
-        <v>3200</v>
+        <v>750</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="B16" s="1">
-        <v>45422</v>
+        <v>45678</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="H16" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="I16">
-        <v>2299</v>
+        <v>799</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>600</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="B17" s="1">
-        <v>45430</v>
+        <v>45680</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H17" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="I17">
-        <v>1350</v>
+        <v>5799</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17">
-        <v>480</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="B18" s="1">
-        <v>45446</v>
+        <v>45682</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
         <v>14</v>
       </c>
-      <c r="F18" t="s">
-        <v>51</v>
-      </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="I18">
-        <v>12500</v>
+        <v>3999</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18">
-        <v>3800</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="B19" s="1">
-        <v>45455</v>
+        <v>45684</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H19" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="I19">
-        <v>9899</v>
+        <v>2799</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="K19">
-        <v>2600</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="B20" s="1">
-        <v>45463</v>
+        <v>45686</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
         <v>14</v>
       </c>
-      <c r="F20" t="s">
-        <v>20</v>
-      </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="I20">
-        <v>4500</v>
+        <v>3699</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
       <c r="K20">
-        <v>1600</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="B21" s="1">
-        <v>45478</v>
+        <v>45688</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="H21" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="I21">
-        <v>5299</v>
+        <v>1199</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
       <c r="K21">
-        <v>1500</v>
+        <v>520</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="B22" s="1">
-        <v>45485</v>
+        <v>45690</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="H22" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="I22">
-        <v>2899</v>
+        <v>3499</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
       <c r="K22">
-        <v>1100</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="B23" s="1">
-        <v>45493</v>
+        <v>45692</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G23" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="H23" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="I23">
-        <v>5499</v>
+        <v>4799</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="K23">
-        <v>1400</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="B24" s="1">
-        <v>45505</v>
+        <v>45694</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
         <v>14</v>
       </c>
-      <c r="F24" t="s">
-        <v>20</v>
-      </c>
       <c r="G24" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="H24" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="I24">
-        <v>18500</v>
+        <v>1399</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24">
-        <v>6800</v>
+        <v>480</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="B25" s="1">
-        <v>45514</v>
+        <v>45696</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="H25" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="I25">
-        <v>3299</v>
+        <v>849</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25">
-        <v>900</v>
+        <v>360</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="B26" s="1">
-        <v>45522</v>
+        <v>45698</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H26" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="I26">
-        <v>1599</v>
+        <v>6199</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
       <c r="K26">
-        <v>620</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="B27" s="1">
-        <v>45538</v>
+        <v>45700</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="I27">
-        <v>8900</v>
+        <v>2199</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
       <c r="K27">
-        <v>2500</v>
+        <v>920</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="B28" s="1">
-        <v>45547</v>
+        <v>45702</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" t="s">
         <v>14</v>
       </c>
-      <c r="F28" t="s">
-        <v>20</v>
-      </c>
       <c r="G28" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="I28">
-        <v>3200</v>
+        <v>1699</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
       <c r="K28">
-        <v>1300</v>
+        <v>580</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="B29" s="1">
-        <v>45555</v>
+        <v>45705</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G29" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="H29" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="I29">
-        <v>2899</v>
+        <v>1799</v>
       </c>
       <c r="J29">
         <v>1</v>
       </c>
       <c r="K29">
-        <v>780</v>
+        <v>750</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="B30" s="1">
-        <v>45570</v>
+        <v>45707</v>
       </c>
       <c r="C30" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
         <v>14</v>
       </c>
-      <c r="F30" t="s">
-        <v>30</v>
-      </c>
       <c r="G30" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="H30" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="I30">
-        <v>1999</v>
+        <v>4899</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
       <c r="K30">
-        <v>820</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="B31" s="1">
-        <v>45580</v>
+        <v>45709</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G31" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="I31">
-        <v>7499</v>
+        <v>1599</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
       <c r="K31">
-        <v>1900</v>
+        <v>680</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="B32" s="1">
-        <v>45587</v>
+        <v>45711</v>
       </c>
       <c r="C32" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G32" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="H32" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="I32">
-        <v>42000</v>
+        <v>3399</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
       <c r="K32">
-        <v>15500</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="B33" s="1">
-        <v>45593</v>
+        <v>45713</v>
       </c>
       <c r="C33" t="s">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G33" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="H33" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="I33">
-        <v>4199</v>
+        <v>2899</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
       <c r="K33">
-        <v>1200</v>
+        <v>950</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="B34" s="1">
-        <v>45601</v>
+        <v>45715</v>
       </c>
       <c r="C34" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="F34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G34" t="s">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="H34" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="I34">
-        <v>4899</v>
+        <v>899</v>
       </c>
       <c r="J34">
         <v>1</v>
       </c>
       <c r="K34">
-        <v>1350</v>
+        <v>380</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="B35" s="1">
-        <v>45608</v>
+        <v>45717</v>
       </c>
       <c r="C35" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="D35" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="H35" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="I35">
-        <v>185000</v>
+        <v>4599</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
       <c r="K35">
-        <v>58000</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="B36" s="1">
-        <v>45614</v>
+        <v>45718</v>
       </c>
       <c r="C36" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
         <v>14</v>
       </c>
-      <c r="F36" t="s">
-        <v>30</v>
-      </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H36" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="I36">
-        <v>1199</v>
+        <v>4499</v>
       </c>
       <c r="J36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K36">
-        <v>480</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="B37" s="1">
-        <v>45621</v>
+        <v>45719</v>
       </c>
       <c r="C37" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F37" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G37" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="I37">
-        <v>15500</v>
+        <v>5999</v>
       </c>
       <c r="J37">
         <v>1</v>
       </c>
       <c r="K37">
-        <v>4800</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="B38" s="1">
-        <v>45628</v>
+        <v>45720</v>
       </c>
       <c r="C38" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="H38" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="I38">
-        <v>8799</v>
+        <v>899</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K38">
-        <v>2200</v>
+        <v>380</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B39" s="1">
-        <v>45634</v>
+        <v>45721</v>
       </c>
       <c r="C39" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="D39" t="s">
         <v>35</v>
@@ -2355,278 +3507,278 @@
         <v>36</v>
       </c>
       <c r="F39" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G39" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="H39" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="I39">
-        <v>7200</v>
+        <v>1999</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
       <c r="K39">
-        <v>1900</v>
+        <v>680</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B40" s="1">
-        <v>45641</v>
+        <v>45722</v>
       </c>
       <c r="C40" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G40" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H40" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="I40">
-        <v>6500</v>
+        <v>1499</v>
       </c>
       <c r="J40">
         <v>1</v>
       </c>
       <c r="K40">
-        <v>2600</v>
+        <v>620</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="B41" s="1">
-        <v>45646</v>
+        <v>45723</v>
       </c>
       <c r="C41" t="s">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="D41" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E41" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G41" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="H41" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="I41">
-        <v>2499</v>
+        <v>999</v>
       </c>
       <c r="J41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K41">
-        <v>780</v>
+        <v>420</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="B42" s="1">
-        <v>45651</v>
+        <v>45724</v>
       </c>
       <c r="C42" t="s">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G42" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H42" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="I42">
-        <v>12500</v>
+        <v>1399</v>
       </c>
       <c r="J42">
         <v>1</v>
       </c>
       <c r="K42">
-        <v>4800</v>
+        <v>580</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B43" s="1">
-        <v>45660</v>
+        <v>45725</v>
       </c>
       <c r="C43" t="s">
-        <v>166</v>
+        <v>85</v>
       </c>
       <c r="D43" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E43" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I43">
-        <v>15999</v>
+        <v>2699</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
       <c r="K43">
-        <v>4200</v>
+        <v>920</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="B44" s="1">
-        <v>45667</v>
+        <v>45726</v>
       </c>
       <c r="C44" t="s">
-        <v>169</v>
+        <v>87</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G44" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="H44" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="I44">
-        <v>35000</v>
+        <v>699</v>
       </c>
       <c r="J44">
         <v>1</v>
       </c>
       <c r="K44">
-        <v>12000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B45" s="1">
-        <v>45675</v>
+        <v>45727</v>
       </c>
       <c r="C45" t="s">
-        <v>172</v>
+        <v>88</v>
       </c>
       <c r="D45" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E45" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" t="s">
         <v>14</v>
       </c>
-      <c r="F45" t="s">
-        <v>26</v>
-      </c>
       <c r="G45" t="s">
-        <v>173</v>
+        <v>15</v>
       </c>
       <c r="H45" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="I45">
-        <v>4199</v>
+        <v>2599</v>
       </c>
       <c r="J45">
         <v>1</v>
       </c>
       <c r="K45">
-        <v>1100</v>
+        <v>820</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B46" s="1">
-        <v>45682</v>
+        <v>45728</v>
       </c>
       <c r="C46" t="s">
-        <v>176</v>
+        <v>89</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="H46" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="I46">
-        <v>2399</v>
+        <v>1199</v>
       </c>
       <c r="J46">
         <v>1</v>
       </c>
       <c r="K46">
-        <v>950</v>
+        <v>520</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B47" s="1">
-        <v>45693</v>
+        <v>45729</v>
       </c>
       <c r="C47" t="s">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c r="D47" t="s">
         <v>35</v>
@@ -2635,162 +3787,5412 @@
         <v>36</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H47" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="I47">
-        <v>4499</v>
+        <v>2299</v>
       </c>
       <c r="J47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K47">
-        <v>1300</v>
+        <v>820</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B48" s="1">
-        <v>45700</v>
+        <v>45730</v>
       </c>
       <c r="C48" t="s">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" t="s">
         <v>14</v>
       </c>
-      <c r="F48" t="s">
-        <v>20</v>
-      </c>
       <c r="G48" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H48" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I48">
-        <v>2899</v>
+        <v>5399</v>
       </c>
       <c r="J48">
         <v>1</v>
       </c>
       <c r="K48">
-        <v>1100</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B49" s="1">
-        <v>45708</v>
+        <v>45731</v>
       </c>
       <c r="C49" t="s">
-        <v>185</v>
+        <v>92</v>
       </c>
       <c r="D49" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E49" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F49" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="G49" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="H49" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I49">
-        <v>5900</v>
+        <v>399</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K49">
-        <v>1800</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B50" s="1">
-        <v>45716</v>
+        <v>45731</v>
       </c>
       <c r="C50" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="H50" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I50">
-        <v>6799</v>
+        <v>799</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K50">
-        <v>1750</v>
+        <v>340</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B51" s="1">
-        <v>45726</v>
+        <v>45731</v>
       </c>
       <c r="C51" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" t="s">
+        <v>194</v>
+      </c>
+      <c r="I51">
+        <v>2999</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52" s="1">
+        <v>45732</v>
+      </c>
+      <c r="C52" t="s">
+        <v>196</v>
+      </c>
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" t="s">
+        <v>197</v>
+      </c>
+      <c r="I52">
+        <v>3499</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>198</v>
+      </c>
+      <c r="B53" s="1">
+        <v>45733</v>
+      </c>
+      <c r="C53" t="s">
+        <v>199</v>
+      </c>
+      <c r="D53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" t="s">
+        <v>200</v>
+      </c>
+      <c r="I53">
+        <v>4999</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>201</v>
+      </c>
+      <c r="B54" s="1">
+        <v>45734</v>
+      </c>
+      <c r="C54" t="s">
+        <v>202</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" t="s">
+        <v>25</v>
+      </c>
+      <c r="H54" t="s">
+        <v>203</v>
+      </c>
+      <c r="I54">
+        <v>549</v>
+      </c>
+      <c r="J54">
+        <v>2</v>
+      </c>
+      <c r="K54">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>204</v>
+      </c>
+      <c r="B55" s="1">
+        <v>45735</v>
+      </c>
+      <c r="C55" t="s">
+        <v>205</v>
+      </c>
+      <c r="D55" t="s">
         <v>35</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E55" t="s">
         <v>36</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F55" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>68</v>
+      </c>
+      <c r="H55" t="s">
+        <v>206</v>
+      </c>
+      <c r="I55">
+        <v>5799</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>207</v>
+      </c>
+      <c r="B56" s="1">
+        <v>45736</v>
+      </c>
+      <c r="C56" t="s">
+        <v>208</v>
+      </c>
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" t="s">
+        <v>59</v>
+      </c>
+      <c r="H56" t="s">
+        <v>209</v>
+      </c>
+      <c r="I56">
+        <v>6799</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>210</v>
+      </c>
+      <c r="B57" s="1">
+        <v>45737</v>
+      </c>
+      <c r="C57" t="s">
+        <v>211</v>
+      </c>
+      <c r="D57" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" t="s">
+        <v>212</v>
+      </c>
+      <c r="I57">
+        <v>6499</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>213</v>
+      </c>
+      <c r="B58" s="1">
+        <v>45738</v>
+      </c>
+      <c r="C58" t="s">
+        <v>214</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" t="s">
+        <v>56</v>
+      </c>
+      <c r="H58" t="s">
+        <v>215</v>
+      </c>
+      <c r="I58">
+        <v>2599</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>216</v>
+      </c>
+      <c r="B59" s="1">
+        <v>45739</v>
+      </c>
+      <c r="C59" t="s">
+        <v>217</v>
+      </c>
+      <c r="D59" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" t="s">
+        <v>37</v>
+      </c>
+      <c r="G59" t="s">
+        <v>38</v>
+      </c>
+      <c r="H59" t="s">
+        <v>218</v>
+      </c>
+      <c r="I59">
+        <v>6999</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>219</v>
+      </c>
+      <c r="B60" s="1">
+        <v>45740</v>
+      </c>
+      <c r="C60" t="s">
+        <v>220</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" t="s">
+        <v>49</v>
+      </c>
+      <c r="H60" t="s">
+        <v>221</v>
+      </c>
+      <c r="I60">
+        <v>3199</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>222</v>
+      </c>
+      <c r="B61" s="1">
+        <v>45741</v>
+      </c>
+      <c r="C61" t="s">
+        <v>223</v>
+      </c>
+      <c r="D61" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" t="s">
+        <v>28</v>
+      </c>
+      <c r="F61" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61" t="s">
+        <v>224</v>
+      </c>
+      <c r="I61">
+        <v>3299</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>225</v>
+      </c>
+      <c r="B62" s="1">
+        <v>45742</v>
+      </c>
+      <c r="C62" t="s">
+        <v>226</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62" t="s">
+        <v>25</v>
+      </c>
+      <c r="H62" t="s">
+        <v>227</v>
+      </c>
+      <c r="I62">
+        <v>949</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>228</v>
+      </c>
+      <c r="B63" s="1">
+        <v>45743</v>
+      </c>
+      <c r="C63" t="s">
+        <v>229</v>
+      </c>
+      <c r="D63" t="s">
+        <v>35</v>
+      </c>
+      <c r="E63" t="s">
+        <v>36</v>
+      </c>
+      <c r="F63" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63" t="s">
+        <v>230</v>
+      </c>
+      <c r="H63" t="s">
+        <v>231</v>
+      </c>
+      <c r="I63">
+        <v>5399</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>232</v>
+      </c>
+      <c r="B64" s="1">
+        <v>45744</v>
+      </c>
+      <c r="C64" t="s">
+        <v>233</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64" t="s">
+        <v>234</v>
+      </c>
+      <c r="I64">
+        <v>2899</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>235</v>
+      </c>
+      <c r="B65" s="1">
+        <v>45745</v>
+      </c>
+      <c r="C65" t="s">
+        <v>236</v>
+      </c>
+      <c r="D65" t="s">
+        <v>27</v>
+      </c>
+      <c r="E65" t="s">
+        <v>28</v>
+      </c>
+      <c r="F65" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" t="s">
+        <v>237</v>
+      </c>
+      <c r="I65">
+        <v>5999</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>238</v>
+      </c>
+      <c r="B66" s="1">
+        <v>45746</v>
+      </c>
+      <c r="C66" t="s">
+        <v>239</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" t="s">
+        <v>24</v>
+      </c>
+      <c r="G66" t="s">
+        <v>43</v>
+      </c>
+      <c r="H66" t="s">
+        <v>240</v>
+      </c>
+      <c r="I66">
+        <v>3399</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>241</v>
+      </c>
+      <c r="B67" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C67" t="s">
+        <v>242</v>
+      </c>
+      <c r="D67" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" t="s">
+        <v>37</v>
+      </c>
+      <c r="G67" t="s">
+        <v>38</v>
+      </c>
+      <c r="H67" t="s">
+        <v>243</v>
+      </c>
+      <c r="I67">
+        <v>6799</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>244</v>
+      </c>
+      <c r="B68" s="1">
+        <v>45748</v>
+      </c>
+      <c r="C68" t="s">
+        <v>245</v>
+      </c>
+      <c r="D68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68" t="s">
+        <v>59</v>
+      </c>
+      <c r="H68" t="s">
+        <v>246</v>
+      </c>
+      <c r="I68">
+        <v>4999</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>247</v>
+      </c>
+      <c r="B69" s="1">
+        <v>45749</v>
+      </c>
+      <c r="C69" t="s">
+        <v>248</v>
+      </c>
+      <c r="D69" t="s">
+        <v>27</v>
+      </c>
+      <c r="E69" t="s">
+        <v>28</v>
+      </c>
+      <c r="F69" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" t="s">
+        <v>29</v>
+      </c>
+      <c r="H69" t="s">
+        <v>249</v>
+      </c>
+      <c r="I69">
+        <v>6799</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>250</v>
+      </c>
+      <c r="B70" s="1">
+        <v>45750</v>
+      </c>
+      <c r="C70" t="s">
+        <v>251</v>
+      </c>
+      <c r="D70" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" t="s">
+        <v>24</v>
+      </c>
+      <c r="G70" t="s">
+        <v>25</v>
+      </c>
+      <c r="H70" t="s">
+        <v>252</v>
+      </c>
+      <c r="I70">
+        <v>899</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>253</v>
+      </c>
+      <c r="B71" s="1">
+        <v>45751</v>
+      </c>
+      <c r="C71" t="s">
+        <v>254</v>
+      </c>
+      <c r="D71" t="s">
+        <v>35</v>
+      </c>
+      <c r="E71" t="s">
+        <v>36</v>
+      </c>
+      <c r="F71" t="s">
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
+        <v>79</v>
+      </c>
+      <c r="H71" t="s">
+        <v>255</v>
+      </c>
+      <c r="I71">
+        <v>6399</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>256</v>
+      </c>
+      <c r="B72" s="1">
+        <v>45752</v>
+      </c>
+      <c r="C72" t="s">
+        <v>257</v>
+      </c>
+      <c r="D72" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72" t="s">
+        <v>72</v>
+      </c>
+      <c r="I72">
+        <v>4199</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>258</v>
+      </c>
+      <c r="B73" s="1">
+        <v>45753</v>
+      </c>
+      <c r="C73" t="s">
+        <v>259</v>
+      </c>
+      <c r="D73" t="s">
+        <v>27</v>
+      </c>
+      <c r="E73" t="s">
+        <v>28</v>
+      </c>
+      <c r="F73" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" t="s">
+        <v>260</v>
+      </c>
+      <c r="I73">
+        <v>2799</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>261</v>
+      </c>
+      <c r="B74" s="1">
+        <v>45754</v>
+      </c>
+      <c r="C74" t="s">
+        <v>262</v>
+      </c>
+      <c r="D74" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" t="s">
+        <v>24</v>
+      </c>
+      <c r="G74" t="s">
+        <v>56</v>
+      </c>
+      <c r="H74" t="s">
+        <v>263</v>
+      </c>
+      <c r="I74">
+        <v>1999</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>264</v>
+      </c>
+      <c r="B75" s="1">
+        <v>45755</v>
+      </c>
+      <c r="C75" t="s">
+        <v>265</v>
+      </c>
+      <c r="D75" t="s">
+        <v>20</v>
+      </c>
+      <c r="E75" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" t="s">
+        <v>37</v>
+      </c>
+      <c r="G75" t="s">
+        <v>38</v>
+      </c>
+      <c r="H75" t="s">
+        <v>266</v>
+      </c>
+      <c r="I75">
+        <v>6899</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>267</v>
+      </c>
+      <c r="B76" s="1">
+        <v>45756</v>
+      </c>
+      <c r="C76" t="s">
+        <v>268</v>
+      </c>
+      <c r="D76" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" t="s">
+        <v>14</v>
+      </c>
+      <c r="G76" t="s">
+        <v>33</v>
+      </c>
+      <c r="H76" t="s">
+        <v>69</v>
+      </c>
+      <c r="I76">
+        <v>3299</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>269</v>
+      </c>
+      <c r="B77" s="1">
+        <v>45757</v>
+      </c>
+      <c r="C77" t="s">
+        <v>270</v>
+      </c>
+      <c r="D77" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77" t="s">
+        <v>28</v>
+      </c>
+      <c r="F77" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" t="s">
+        <v>31</v>
+      </c>
+      <c r="H77" t="s">
+        <v>271</v>
+      </c>
+      <c r="I77">
+        <v>3999</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>272</v>
+      </c>
+      <c r="B78" s="1">
+        <v>45758</v>
+      </c>
+      <c r="C78" t="s">
+        <v>273</v>
+      </c>
+      <c r="D78" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" t="s">
+        <v>24</v>
+      </c>
+      <c r="G78" t="s">
+        <v>25</v>
+      </c>
+      <c r="H78" t="s">
+        <v>274</v>
+      </c>
+      <c r="I78">
+        <v>799</v>
+      </c>
+      <c r="J78">
+        <v>2</v>
+      </c>
+      <c r="K78">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>275</v>
+      </c>
+      <c r="B79" s="1">
+        <v>45759</v>
+      </c>
+      <c r="C79" t="s">
+        <v>276</v>
+      </c>
+      <c r="D79" t="s">
+        <v>35</v>
+      </c>
+      <c r="E79" t="s">
+        <v>36</v>
+      </c>
+      <c r="F79" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" t="s">
+        <v>29</v>
+      </c>
+      <c r="H79" t="s">
+        <v>277</v>
+      </c>
+      <c r="I79">
+        <v>6599</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>278</v>
+      </c>
+      <c r="B80" s="1">
+        <v>45760</v>
+      </c>
+      <c r="C80" t="s">
         <v>30</v>
       </c>
-      <c r="G51" t="s">
+      <c r="D80" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80" t="s">
+        <v>59</v>
+      </c>
+      <c r="H80" t="s">
+        <v>279</v>
+      </c>
+      <c r="I80">
+        <v>5799</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>280</v>
+      </c>
+      <c r="B81" s="1">
+        <v>45761</v>
+      </c>
+      <c r="C81" t="s">
+        <v>281</v>
+      </c>
+      <c r="D81" t="s">
+        <v>27</v>
+      </c>
+      <c r="E81" t="s">
+        <v>28</v>
+      </c>
+      <c r="F81" t="s">
+        <v>21</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>282</v>
+      </c>
+      <c r="I81">
+        <v>3899</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>283</v>
+      </c>
+      <c r="B82" s="1">
+        <v>45762</v>
+      </c>
+      <c r="C82" t="s">
+        <v>284</v>
+      </c>
+      <c r="D82" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82" t="s">
+        <v>15</v>
+      </c>
+      <c r="H82" t="s">
+        <v>285</v>
+      </c>
+      <c r="I82">
+        <v>4499</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>286</v>
+      </c>
+      <c r="B83" s="1">
+        <v>45763</v>
+      </c>
+      <c r="C83" t="s">
+        <v>287</v>
+      </c>
+      <c r="D83" t="s">
+        <v>20</v>
+      </c>
+      <c r="E83" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" t="s">
+        <v>24</v>
+      </c>
+      <c r="G83" t="s">
+        <v>43</v>
+      </c>
+      <c r="H83" t="s">
+        <v>288</v>
+      </c>
+      <c r="I83">
+        <v>2299</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>289</v>
+      </c>
+      <c r="B84" s="1">
+        <v>45764</v>
+      </c>
+      <c r="C84" t="s">
+        <v>290</v>
+      </c>
+      <c r="D84" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84" t="s">
+        <v>18</v>
+      </c>
+      <c r="H84" t="s">
+        <v>291</v>
+      </c>
+      <c r="I84">
+        <v>3199</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>292</v>
+      </c>
+      <c r="B85" s="1">
+        <v>45765</v>
+      </c>
+      <c r="C85" t="s">
+        <v>293</v>
+      </c>
+      <c r="D85" t="s">
+        <v>27</v>
+      </c>
+      <c r="E85" t="s">
+        <v>28</v>
+      </c>
+      <c r="F85" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" t="s">
+        <v>49</v>
+      </c>
+      <c r="H85" t="s">
+        <v>294</v>
+      </c>
+      <c r="I85">
+        <v>2799</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>295</v>
+      </c>
+      <c r="B86" s="1">
+        <v>45766</v>
+      </c>
+      <c r="C86" t="s">
+        <v>296</v>
+      </c>
+      <c r="D86" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" t="s">
+        <v>24</v>
+      </c>
+      <c r="G86" t="s">
+        <v>25</v>
+      </c>
+      <c r="H86" t="s">
+        <v>297</v>
+      </c>
+      <c r="I86">
+        <v>749</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>298</v>
+      </c>
+      <c r="B87" s="1">
+        <v>45767</v>
+      </c>
+      <c r="C87" t="s">
+        <v>299</v>
+      </c>
+      <c r="D87" t="s">
+        <v>35</v>
+      </c>
+      <c r="E87" t="s">
+        <v>36</v>
+      </c>
+      <c r="F87" t="s">
+        <v>37</v>
+      </c>
+      <c r="G87" t="s">
+        <v>38</v>
+      </c>
+      <c r="H87" t="s">
+        <v>300</v>
+      </c>
+      <c r="I87">
+        <v>3699</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>301</v>
+      </c>
+      <c r="B88" s="1">
+        <v>45768</v>
+      </c>
+      <c r="C88" t="s">
+        <v>302</v>
+      </c>
+      <c r="D88" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" t="s">
+        <v>29</v>
+      </c>
+      <c r="H88" t="s">
+        <v>303</v>
+      </c>
+      <c r="I88">
+        <v>5999</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>304</v>
+      </c>
+      <c r="B89" s="1">
+        <v>45769</v>
+      </c>
+      <c r="C89" t="s">
+        <v>305</v>
+      </c>
+      <c r="D89" t="s">
+        <v>27</v>
+      </c>
+      <c r="E89" t="s">
+        <v>28</v>
+      </c>
+      <c r="F89" t="s">
+        <v>17</v>
+      </c>
+      <c r="G89" t="s">
         <v>31</v>
       </c>
-      <c r="H51" t="s">
-        <v>192</v>
-      </c>
-      <c r="I51">
+      <c r="H89" t="s">
+        <v>306</v>
+      </c>
+      <c r="I89">
         <v>1899</v>
       </c>
-      <c r="J51">
-        <v>1</v>
-      </c>
-      <c r="K51">
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
         <v>780</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>307</v>
+      </c>
+      <c r="B90" s="1">
+        <v>45770</v>
+      </c>
+      <c r="C90" t="s">
+        <v>308</v>
+      </c>
+      <c r="D90" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" t="s">
+        <v>24</v>
+      </c>
+      <c r="G90" t="s">
+        <v>56</v>
+      </c>
+      <c r="H90" t="s">
+        <v>309</v>
+      </c>
+      <c r="I90">
+        <v>1699</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>310</v>
+      </c>
+      <c r="B91" s="1">
+        <v>45771</v>
+      </c>
+      <c r="C91" t="s">
+        <v>311</v>
+      </c>
+      <c r="D91" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" t="s">
+        <v>21</v>
+      </c>
+      <c r="G91" t="s">
+        <v>68</v>
+      </c>
+      <c r="H91" t="s">
+        <v>312</v>
+      </c>
+      <c r="I91">
+        <v>6999</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>313</v>
+      </c>
+      <c r="B92" s="1">
+        <v>45772</v>
+      </c>
+      <c r="C92" t="s">
+        <v>314</v>
+      </c>
+      <c r="D92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" t="s">
+        <v>15</v>
+      </c>
+      <c r="H92" t="s">
+        <v>315</v>
+      </c>
+      <c r="I92">
+        <v>3999</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>316</v>
+      </c>
+      <c r="B93" s="1">
+        <v>45773</v>
+      </c>
+      <c r="C93" t="s">
+        <v>317</v>
+      </c>
+      <c r="D93" t="s">
+        <v>27</v>
+      </c>
+      <c r="E93" t="s">
+        <v>28</v>
+      </c>
+      <c r="F93" t="s">
+        <v>17</v>
+      </c>
+      <c r="G93" t="s">
+        <v>59</v>
+      </c>
+      <c r="H93" t="s">
+        <v>318</v>
+      </c>
+      <c r="I93">
+        <v>6199</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>319</v>
+      </c>
+      <c r="B94" s="1">
+        <v>45774</v>
+      </c>
+      <c r="C94" t="s">
+        <v>320</v>
+      </c>
+      <c r="D94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" t="s">
+        <v>24</v>
+      </c>
+      <c r="G94" t="s">
+        <v>25</v>
+      </c>
+      <c r="H94" t="s">
+        <v>321</v>
+      </c>
+      <c r="I94">
+        <v>899</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>322</v>
+      </c>
+      <c r="B95" s="1">
+        <v>45775</v>
+      </c>
+      <c r="C95" t="s">
+        <v>323</v>
+      </c>
+      <c r="D95" t="s">
+        <v>35</v>
+      </c>
+      <c r="E95" t="s">
+        <v>36</v>
+      </c>
+      <c r="F95" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95" t="s">
+        <v>29</v>
+      </c>
+      <c r="H95" t="s">
+        <v>324</v>
+      </c>
+      <c r="I95">
+        <v>5799</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>325</v>
+      </c>
+      <c r="B96" s="1">
+        <v>45776</v>
+      </c>
+      <c r="C96" t="s">
+        <v>326</v>
+      </c>
+      <c r="D96" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" t="s">
+        <v>17</v>
+      </c>
+      <c r="G96" t="s">
+        <v>18</v>
+      </c>
+      <c r="H96" t="s">
+        <v>327</v>
+      </c>
+      <c r="I96">
+        <v>999</v>
+      </c>
+      <c r="J96">
+        <v>2</v>
+      </c>
+      <c r="K96">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>328</v>
+      </c>
+      <c r="B97" s="1">
+        <v>45777</v>
+      </c>
+      <c r="C97" t="s">
+        <v>329</v>
+      </c>
+      <c r="D97" t="s">
+        <v>27</v>
+      </c>
+      <c r="E97" t="s">
+        <v>28</v>
+      </c>
+      <c r="F97" t="s">
+        <v>37</v>
+      </c>
+      <c r="G97" t="s">
+        <v>38</v>
+      </c>
+      <c r="H97" t="s">
+        <v>330</v>
+      </c>
+      <c r="I97">
+        <v>4599</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>331</v>
+      </c>
+      <c r="B98" s="1">
+        <v>45777</v>
+      </c>
+      <c r="C98" t="s">
+        <v>332</v>
+      </c>
+      <c r="D98" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" t="s">
+        <v>24</v>
+      </c>
+      <c r="G98" t="s">
+        <v>43</v>
+      </c>
+      <c r="H98" t="s">
+        <v>333</v>
+      </c>
+      <c r="I98">
+        <v>1199</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>334</v>
+      </c>
+      <c r="B99" s="1">
+        <v>45777</v>
+      </c>
+      <c r="C99" t="s">
+        <v>335</v>
+      </c>
+      <c r="D99" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" t="s">
+        <v>15</v>
+      </c>
+      <c r="H99" t="s">
+        <v>336</v>
+      </c>
+      <c r="I99">
+        <v>4899</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>337</v>
+      </c>
+      <c r="B100" s="1">
+        <v>45777</v>
+      </c>
+      <c r="C100" t="s">
+        <v>338</v>
+      </c>
+      <c r="D100" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" t="s">
+        <v>17</v>
+      </c>
+      <c r="G100" t="s">
+        <v>31</v>
+      </c>
+      <c r="H100" t="s">
+        <v>339</v>
+      </c>
+      <c r="I100">
+        <v>499</v>
+      </c>
+      <c r="J100">
+        <v>3</v>
+      </c>
+      <c r="K100">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>340</v>
+      </c>
+      <c r="B101" s="1">
+        <v>45777</v>
+      </c>
+      <c r="C101" t="s">
+        <v>341</v>
+      </c>
+      <c r="D101" t="s">
+        <v>27</v>
+      </c>
+      <c r="E101" t="s">
+        <v>28</v>
+      </c>
+      <c r="F101" t="s">
+        <v>21</v>
+      </c>
+      <c r="G101" t="s">
+        <v>74</v>
+      </c>
+      <c r="H101" t="s">
+        <v>342</v>
+      </c>
+      <c r="I101">
+        <v>3199</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>343</v>
+      </c>
+      <c r="B102" s="1">
+        <v>45780</v>
+      </c>
+      <c r="C102" t="s">
+        <v>344</v>
+      </c>
+      <c r="D102" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" t="s">
+        <v>14</v>
+      </c>
+      <c r="G102" t="s">
+        <v>15</v>
+      </c>
+      <c r="H102" t="s">
+        <v>345</v>
+      </c>
+      <c r="I102">
+        <v>1599</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>346</v>
+      </c>
+      <c r="B103" s="1">
+        <v>45784</v>
+      </c>
+      <c r="C103" t="s">
+        <v>223</v>
+      </c>
+      <c r="D103" t="s">
+        <v>27</v>
+      </c>
+      <c r="E103" t="s">
+        <v>28</v>
+      </c>
+      <c r="F103" t="s">
+        <v>17</v>
+      </c>
+      <c r="G103" t="s">
+        <v>31</v>
+      </c>
+      <c r="H103" t="s">
+        <v>347</v>
+      </c>
+      <c r="I103">
+        <v>599</v>
+      </c>
+      <c r="J103">
+        <v>2</v>
+      </c>
+      <c r="K103">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>348</v>
+      </c>
+      <c r="B104" s="1">
+        <v>45787</v>
+      </c>
+      <c r="C104" t="s">
+        <v>349</v>
+      </c>
+      <c r="D104" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" t="s">
+        <v>24</v>
+      </c>
+      <c r="G104" t="s">
+        <v>43</v>
+      </c>
+      <c r="H104" t="s">
+        <v>350</v>
+      </c>
+      <c r="I104">
+        <v>799</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>351</v>
+      </c>
+      <c r="B105" s="1">
+        <v>45791</v>
+      </c>
+      <c r="C105" t="s">
+        <v>352</v>
+      </c>
+      <c r="D105" t="s">
+        <v>20</v>
+      </c>
+      <c r="E105" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" t="s">
+        <v>21</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>353</v>
+      </c>
+      <c r="I105">
+        <v>2499</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>354</v>
+      </c>
+      <c r="B106" s="1">
+        <v>45795</v>
+      </c>
+      <c r="C106" t="s">
+        <v>355</v>
+      </c>
+      <c r="D106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106" t="s">
+        <v>33</v>
+      </c>
+      <c r="H106" t="s">
+        <v>356</v>
+      </c>
+      <c r="I106">
+        <v>399</v>
+      </c>
+      <c r="J106">
+        <v>3</v>
+      </c>
+      <c r="K106">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>357</v>
+      </c>
+      <c r="B107" s="1">
+        <v>45799</v>
+      </c>
+      <c r="C107" t="s">
+        <v>358</v>
+      </c>
+      <c r="D107" t="s">
+        <v>35</v>
+      </c>
+      <c r="E107" t="s">
+        <v>36</v>
+      </c>
+      <c r="F107" t="s">
+        <v>17</v>
+      </c>
+      <c r="G107" t="s">
+        <v>18</v>
+      </c>
+      <c r="H107" t="s">
+        <v>359</v>
+      </c>
+      <c r="I107">
+        <v>699</v>
+      </c>
+      <c r="J107">
+        <v>2</v>
+      </c>
+      <c r="K107">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>360</v>
+      </c>
+      <c r="B108" s="1">
+        <v>45804</v>
+      </c>
+      <c r="C108" t="s">
+        <v>220</v>
+      </c>
+      <c r="D108" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" t="s">
+        <v>14</v>
+      </c>
+      <c r="G108" t="s">
+        <v>29</v>
+      </c>
+      <c r="H108" t="s">
+        <v>361</v>
+      </c>
+      <c r="I108">
+        <v>3199</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>362</v>
+      </c>
+      <c r="B109" s="1">
+        <v>45808</v>
+      </c>
+      <c r="C109" t="s">
+        <v>363</v>
+      </c>
+      <c r="D109" t="s">
+        <v>27</v>
+      </c>
+      <c r="E109" t="s">
+        <v>28</v>
+      </c>
+      <c r="F109" t="s">
+        <v>37</v>
+      </c>
+      <c r="G109" t="s">
+        <v>38</v>
+      </c>
+      <c r="H109" t="s">
+        <v>364</v>
+      </c>
+      <c r="I109">
+        <v>1899</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>365</v>
+      </c>
+      <c r="B110" s="1">
+        <v>45813</v>
+      </c>
+      <c r="C110" t="s">
+        <v>366</v>
+      </c>
+      <c r="D110" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" t="s">
+        <v>24</v>
+      </c>
+      <c r="G110" t="s">
+        <v>25</v>
+      </c>
+      <c r="H110" t="s">
+        <v>367</v>
+      </c>
+      <c r="I110">
+        <v>499</v>
+      </c>
+      <c r="J110">
+        <v>2</v>
+      </c>
+      <c r="K110">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>368</v>
+      </c>
+      <c r="B111" s="1">
+        <v>45817</v>
+      </c>
+      <c r="C111" t="s">
+        <v>369</v>
+      </c>
+      <c r="D111" t="s">
+        <v>20</v>
+      </c>
+      <c r="E111" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" t="s">
+        <v>21</v>
+      </c>
+      <c r="G111" t="s">
+        <v>370</v>
+      </c>
+      <c r="H111" t="s">
+        <v>371</v>
+      </c>
+      <c r="I111">
+        <v>599</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>372</v>
+      </c>
+      <c r="B112" s="1">
+        <v>45821</v>
+      </c>
+      <c r="C112" t="s">
+        <v>373</v>
+      </c>
+      <c r="D112" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" t="s">
+        <v>14</v>
+      </c>
+      <c r="G112" t="s">
+        <v>15</v>
+      </c>
+      <c r="H112" t="s">
+        <v>374</v>
+      </c>
+      <c r="I112">
+        <v>1899</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>375</v>
+      </c>
+      <c r="B113" s="1">
+        <v>45825</v>
+      </c>
+      <c r="C113" t="s">
+        <v>376</v>
+      </c>
+      <c r="D113" t="s">
+        <v>27</v>
+      </c>
+      <c r="E113" t="s">
+        <v>28</v>
+      </c>
+      <c r="F113" t="s">
+        <v>17</v>
+      </c>
+      <c r="G113" t="s">
+        <v>31</v>
+      </c>
+      <c r="H113" t="s">
+        <v>377</v>
+      </c>
+      <c r="I113">
+        <v>449</v>
+      </c>
+      <c r="J113">
+        <v>3</v>
+      </c>
+      <c r="K113">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>378</v>
+      </c>
+      <c r="B114" s="1">
+        <v>45829</v>
+      </c>
+      <c r="C114" t="s">
+        <v>379</v>
+      </c>
+      <c r="D114" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114" t="s">
+        <v>24</v>
+      </c>
+      <c r="G114" t="s">
+        <v>56</v>
+      </c>
+      <c r="H114" t="s">
+        <v>380</v>
+      </c>
+      <c r="I114">
+        <v>999</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>381</v>
+      </c>
+      <c r="B115" s="1">
+        <v>45833</v>
+      </c>
+      <c r="C115" t="s">
+        <v>81</v>
+      </c>
+      <c r="D115" t="s">
+        <v>35</v>
+      </c>
+      <c r="E115" t="s">
+        <v>36</v>
+      </c>
+      <c r="F115" t="s">
+        <v>14</v>
+      </c>
+      <c r="G115" t="s">
+        <v>49</v>
+      </c>
+      <c r="H115" t="s">
+        <v>382</v>
+      </c>
+      <c r="I115">
+        <v>1199</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>383</v>
+      </c>
+      <c r="B116" s="1">
+        <v>45837</v>
+      </c>
+      <c r="C116" t="s">
+        <v>82</v>
+      </c>
+      <c r="D116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" t="s">
+        <v>13</v>
+      </c>
+      <c r="F116" t="s">
+        <v>37</v>
+      </c>
+      <c r="G116" t="s">
+        <v>38</v>
+      </c>
+      <c r="H116" t="s">
+        <v>384</v>
+      </c>
+      <c r="I116">
+        <v>899</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>385</v>
+      </c>
+      <c r="B117" s="1">
+        <v>45841</v>
+      </c>
+      <c r="C117" t="s">
+        <v>386</v>
+      </c>
+      <c r="D117" t="s">
+        <v>27</v>
+      </c>
+      <c r="E117" t="s">
+        <v>28</v>
+      </c>
+      <c r="F117" t="s">
+        <v>14</v>
+      </c>
+      <c r="G117" t="s">
+        <v>67</v>
+      </c>
+      <c r="H117" t="s">
+        <v>387</v>
+      </c>
+      <c r="I117">
+        <v>1399</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>388</v>
+      </c>
+      <c r="B118" s="1">
+        <v>45845</v>
+      </c>
+      <c r="C118" t="s">
+        <v>84</v>
+      </c>
+      <c r="D118" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" t="s">
+        <v>17</v>
+      </c>
+      <c r="G118" t="s">
+        <v>18</v>
+      </c>
+      <c r="H118" t="s">
+        <v>389</v>
+      </c>
+      <c r="I118">
+        <v>549</v>
+      </c>
+      <c r="J118">
+        <v>2</v>
+      </c>
+      <c r="K118">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>390</v>
+      </c>
+      <c r="B119" s="1">
+        <v>45849</v>
+      </c>
+      <c r="C119" t="s">
+        <v>391</v>
+      </c>
+      <c r="D119" t="s">
+        <v>20</v>
+      </c>
+      <c r="E119" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" t="s">
+        <v>21</v>
+      </c>
+      <c r="G119" t="s">
+        <v>46</v>
+      </c>
+      <c r="H119" t="s">
+        <v>392</v>
+      </c>
+      <c r="I119">
+        <v>2299</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>393</v>
+      </c>
+      <c r="B120" s="1">
+        <v>45853</v>
+      </c>
+      <c r="C120" t="s">
+        <v>394</v>
+      </c>
+      <c r="D120" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" t="s">
+        <v>13</v>
+      </c>
+      <c r="F120" t="s">
+        <v>24</v>
+      </c>
+      <c r="G120" t="s">
+        <v>25</v>
+      </c>
+      <c r="H120" t="s">
+        <v>395</v>
+      </c>
+      <c r="I120">
+        <v>399</v>
+      </c>
+      <c r="J120">
+        <v>3</v>
+      </c>
+      <c r="K120">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>396</v>
+      </c>
+      <c r="B121" s="1">
+        <v>45857</v>
+      </c>
+      <c r="C121" t="s">
+        <v>397</v>
+      </c>
+      <c r="D121" t="s">
+        <v>27</v>
+      </c>
+      <c r="E121" t="s">
+        <v>28</v>
+      </c>
+      <c r="F121" t="s">
+        <v>14</v>
+      </c>
+      <c r="G121" t="s">
+        <v>15</v>
+      </c>
+      <c r="H121" t="s">
+        <v>398</v>
+      </c>
+      <c r="I121">
+        <v>1799</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>399</v>
+      </c>
+      <c r="B122" s="1">
+        <v>45861</v>
+      </c>
+      <c r="C122" t="s">
+        <v>400</v>
+      </c>
+      <c r="D122" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" t="s">
+        <v>17</v>
+      </c>
+      <c r="G122" t="s">
+        <v>59</v>
+      </c>
+      <c r="H122" t="s">
+        <v>401</v>
+      </c>
+      <c r="I122">
+        <v>799</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>402</v>
+      </c>
+      <c r="B123" s="1">
+        <v>45865</v>
+      </c>
+      <c r="C123" t="s">
+        <v>403</v>
+      </c>
+      <c r="D123" t="s">
+        <v>35</v>
+      </c>
+      <c r="E123" t="s">
+        <v>36</v>
+      </c>
+      <c r="F123" t="s">
+        <v>37</v>
+      </c>
+      <c r="G123" t="s">
+        <v>38</v>
+      </c>
+      <c r="H123" t="s">
+        <v>404</v>
+      </c>
+      <c r="I123">
+        <v>499</v>
+      </c>
+      <c r="J123">
+        <v>2</v>
+      </c>
+      <c r="K123">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>405</v>
+      </c>
+      <c r="B124" s="1">
+        <v>45869</v>
+      </c>
+      <c r="C124" t="s">
+        <v>406</v>
+      </c>
+      <c r="D124" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" t="s">
+        <v>13</v>
+      </c>
+      <c r="F124" t="s">
+        <v>14</v>
+      </c>
+      <c r="G124" t="s">
+        <v>33</v>
+      </c>
+      <c r="H124" t="s">
+        <v>407</v>
+      </c>
+      <c r="I124">
+        <v>999</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>408</v>
+      </c>
+      <c r="B125" s="1">
+        <v>45873</v>
+      </c>
+      <c r="C125" t="s">
+        <v>409</v>
+      </c>
+      <c r="D125" t="s">
+        <v>27</v>
+      </c>
+      <c r="E125" t="s">
+        <v>28</v>
+      </c>
+      <c r="F125" t="s">
+        <v>24</v>
+      </c>
+      <c r="G125" t="s">
+        <v>43</v>
+      </c>
+      <c r="H125" t="s">
+        <v>410</v>
+      </c>
+      <c r="I125">
+        <v>699</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>411</v>
+      </c>
+      <c r="B126" s="1">
+        <v>45877</v>
+      </c>
+      <c r="C126" t="s">
+        <v>39</v>
+      </c>
+      <c r="D126" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126" t="s">
+        <v>17</v>
+      </c>
+      <c r="G126" t="s">
+        <v>18</v>
+      </c>
+      <c r="H126" t="s">
+        <v>412</v>
+      </c>
+      <c r="I126">
+        <v>899</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>413</v>
+      </c>
+      <c r="B127" s="1">
+        <v>45881</v>
+      </c>
+      <c r="C127" t="s">
+        <v>414</v>
+      </c>
+      <c r="D127" t="s">
+        <v>20</v>
+      </c>
+      <c r="E127" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127" t="s">
+        <v>14</v>
+      </c>
+      <c r="G127" t="s">
+        <v>29</v>
+      </c>
+      <c r="H127" t="s">
+        <v>415</v>
+      </c>
+      <c r="I127">
+        <v>3699</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>416</v>
+      </c>
+      <c r="B128" s="1">
+        <v>45884</v>
+      </c>
+      <c r="C128" t="s">
+        <v>417</v>
+      </c>
+      <c r="D128" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" t="s">
+        <v>24</v>
+      </c>
+      <c r="G128" t="s">
+        <v>25</v>
+      </c>
+      <c r="H128" t="s">
+        <v>418</v>
+      </c>
+      <c r="I128">
+        <v>549</v>
+      </c>
+      <c r="J128">
+        <v>2</v>
+      </c>
+      <c r="K128">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>419</v>
+      </c>
+      <c r="B129" s="1">
+        <v>45885</v>
+      </c>
+      <c r="C129" t="s">
+        <v>420</v>
+      </c>
+      <c r="D129" t="s">
+        <v>27</v>
+      </c>
+      <c r="E129" t="s">
+        <v>28</v>
+      </c>
+      <c r="F129" t="s">
+        <v>21</v>
+      </c>
+      <c r="G129" t="s">
+        <v>421</v>
+      </c>
+      <c r="H129" t="s">
+        <v>422</v>
+      </c>
+      <c r="I129">
+        <v>1399</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>423</v>
+      </c>
+      <c r="B130" s="1">
+        <v>45885</v>
+      </c>
+      <c r="C130" t="s">
+        <v>424</v>
+      </c>
+      <c r="D130" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" t="s">
+        <v>17</v>
+      </c>
+      <c r="G130" t="s">
+        <v>31</v>
+      </c>
+      <c r="H130" t="s">
+        <v>425</v>
+      </c>
+      <c r="I130">
+        <v>1199</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>426</v>
+      </c>
+      <c r="B131" s="1">
+        <v>45885</v>
+      </c>
+      <c r="C131" t="s">
+        <v>427</v>
+      </c>
+      <c r="D131" t="s">
+        <v>35</v>
+      </c>
+      <c r="E131" t="s">
+        <v>36</v>
+      </c>
+      <c r="F131" t="s">
+        <v>14</v>
+      </c>
+      <c r="G131" t="s">
+        <v>15</v>
+      </c>
+      <c r="H131" t="s">
+        <v>428</v>
+      </c>
+      <c r="I131">
+        <v>1299</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>429</v>
+      </c>
+      <c r="B132" s="1">
+        <v>45886</v>
+      </c>
+      <c r="C132" t="s">
+        <v>430</v>
+      </c>
+      <c r="D132" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132" t="s">
+        <v>13</v>
+      </c>
+      <c r="F132" t="s">
+        <v>24</v>
+      </c>
+      <c r="G132" t="s">
+        <v>56</v>
+      </c>
+      <c r="H132" t="s">
+        <v>431</v>
+      </c>
+      <c r="I132">
+        <v>899</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>432</v>
+      </c>
+      <c r="B133" s="1">
+        <v>45886</v>
+      </c>
+      <c r="C133" t="s">
+        <v>26</v>
+      </c>
+      <c r="D133" t="s">
+        <v>27</v>
+      </c>
+      <c r="E133" t="s">
+        <v>28</v>
+      </c>
+      <c r="F133" t="s">
+        <v>37</v>
+      </c>
+      <c r="G133" t="s">
+        <v>38</v>
+      </c>
+      <c r="H133" t="s">
+        <v>433</v>
+      </c>
+      <c r="I133">
+        <v>799</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>434</v>
+      </c>
+      <c r="B134" s="1">
+        <v>45886</v>
+      </c>
+      <c r="C134" t="s">
+        <v>435</v>
+      </c>
+      <c r="D134" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" t="s">
+        <v>13</v>
+      </c>
+      <c r="F134" t="s">
+        <v>14</v>
+      </c>
+      <c r="G134" t="s">
+        <v>49</v>
+      </c>
+      <c r="H134" t="s">
+        <v>436</v>
+      </c>
+      <c r="I134">
+        <v>1799</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>437</v>
+      </c>
+      <c r="B135" s="1">
+        <v>45887</v>
+      </c>
+      <c r="C135" t="s">
+        <v>217</v>
+      </c>
+      <c r="D135" t="s">
+        <v>20</v>
+      </c>
+      <c r="E135" t="s">
+        <v>13</v>
+      </c>
+      <c r="F135" t="s">
+        <v>17</v>
+      </c>
+      <c r="G135" t="s">
+        <v>18</v>
+      </c>
+      <c r="H135" t="s">
+        <v>438</v>
+      </c>
+      <c r="I135">
+        <v>599</v>
+      </c>
+      <c r="J135">
+        <v>2</v>
+      </c>
+      <c r="K135">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>439</v>
+      </c>
+      <c r="B136" s="1">
+        <v>45887</v>
+      </c>
+      <c r="C136" t="s">
+        <v>440</v>
+      </c>
+      <c r="D136" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" t="s">
+        <v>13</v>
+      </c>
+      <c r="F136" t="s">
+        <v>24</v>
+      </c>
+      <c r="G136" t="s">
+        <v>25</v>
+      </c>
+      <c r="H136" t="s">
+        <v>441</v>
+      </c>
+      <c r="I136">
+        <v>649</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>442</v>
+      </c>
+      <c r="B137" s="1">
+        <v>45887</v>
+      </c>
+      <c r="C137" t="s">
+        <v>443</v>
+      </c>
+      <c r="D137" t="s">
+        <v>27</v>
+      </c>
+      <c r="E137" t="s">
+        <v>28</v>
+      </c>
+      <c r="F137" t="s">
+        <v>14</v>
+      </c>
+      <c r="G137" t="s">
+        <v>29</v>
+      </c>
+      <c r="H137" t="s">
+        <v>444</v>
+      </c>
+      <c r="I137">
+        <v>3399</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>445</v>
+      </c>
+      <c r="B138" s="1">
+        <v>45888</v>
+      </c>
+      <c r="C138" t="s">
+        <v>446</v>
+      </c>
+      <c r="D138" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" t="s">
+        <v>13</v>
+      </c>
+      <c r="F138" t="s">
+        <v>17</v>
+      </c>
+      <c r="G138" t="s">
+        <v>59</v>
+      </c>
+      <c r="H138" t="s">
+        <v>447</v>
+      </c>
+      <c r="I138">
+        <v>699</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>448</v>
+      </c>
+      <c r="B139" s="1">
+        <v>45888</v>
+      </c>
+      <c r="C139" t="s">
+        <v>229</v>
+      </c>
+      <c r="D139" t="s">
+        <v>35</v>
+      </c>
+      <c r="E139" t="s">
+        <v>36</v>
+      </c>
+      <c r="F139" t="s">
+        <v>21</v>
+      </c>
+      <c r="G139" t="s">
+        <v>46</v>
+      </c>
+      <c r="H139" t="s">
+        <v>449</v>
+      </c>
+      <c r="I139">
+        <v>2699</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>450</v>
+      </c>
+      <c r="B140" s="1">
+        <v>45888</v>
+      </c>
+      <c r="C140" t="s">
+        <v>451</v>
+      </c>
+      <c r="D140" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140" t="s">
+        <v>13</v>
+      </c>
+      <c r="F140" t="s">
+        <v>14</v>
+      </c>
+      <c r="G140" t="s">
+        <v>15</v>
+      </c>
+      <c r="H140" t="s">
+        <v>452</v>
+      </c>
+      <c r="I140">
+        <v>1099</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>453</v>
+      </c>
+      <c r="B141" s="1">
+        <v>45889</v>
+      </c>
+      <c r="C141" t="s">
+        <v>323</v>
+      </c>
+      <c r="D141" t="s">
+        <v>27</v>
+      </c>
+      <c r="E141" t="s">
+        <v>28</v>
+      </c>
+      <c r="F141" t="s">
+        <v>17</v>
+      </c>
+      <c r="G141" t="s">
+        <v>31</v>
+      </c>
+      <c r="H141" t="s">
+        <v>454</v>
+      </c>
+      <c r="I141">
+        <v>799</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>455</v>
+      </c>
+      <c r="B142" s="1">
+        <v>45889</v>
+      </c>
+      <c r="C142" t="s">
+        <v>456</v>
+      </c>
+      <c r="D142" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142" t="s">
+        <v>13</v>
+      </c>
+      <c r="F142" t="s">
+        <v>24</v>
+      </c>
+      <c r="G142" t="s">
+        <v>43</v>
+      </c>
+      <c r="H142" t="s">
+        <v>457</v>
+      </c>
+      <c r="I142">
+        <v>899</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>458</v>
+      </c>
+      <c r="B143" s="1">
+        <v>45889</v>
+      </c>
+      <c r="C143" t="s">
+        <v>242</v>
+      </c>
+      <c r="D143" t="s">
+        <v>20</v>
+      </c>
+      <c r="E143" t="s">
+        <v>13</v>
+      </c>
+      <c r="F143" t="s">
+        <v>37</v>
+      </c>
+      <c r="G143" t="s">
+        <v>38</v>
+      </c>
+      <c r="H143" t="s">
+        <v>459</v>
+      </c>
+      <c r="I143">
+        <v>599</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>460</v>
+      </c>
+      <c r="B144" s="1">
+        <v>45890</v>
+      </c>
+      <c r="C144" t="s">
+        <v>461</v>
+      </c>
+      <c r="D144" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144" t="s">
+        <v>13</v>
+      </c>
+      <c r="F144" t="s">
+        <v>14</v>
+      </c>
+      <c r="G144" t="s">
+        <v>33</v>
+      </c>
+      <c r="H144" t="s">
+        <v>462</v>
+      </c>
+      <c r="I144">
+        <v>1399</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>463</v>
+      </c>
+      <c r="B145" s="1">
+        <v>45890</v>
+      </c>
+      <c r="C145" t="s">
+        <v>326</v>
+      </c>
+      <c r="D145" t="s">
+        <v>27</v>
+      </c>
+      <c r="E145" t="s">
+        <v>28</v>
+      </c>
+      <c r="F145" t="s">
+        <v>17</v>
+      </c>
+      <c r="G145" t="s">
+        <v>18</v>
+      </c>
+      <c r="H145" t="s">
+        <v>464</v>
+      </c>
+      <c r="I145">
+        <v>499</v>
+      </c>
+      <c r="J145">
+        <v>3</v>
+      </c>
+      <c r="K145">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>465</v>
+      </c>
+      <c r="B146" s="1">
+        <v>45890</v>
+      </c>
+      <c r="C146" t="s">
+        <v>335</v>
+      </c>
+      <c r="D146" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146" t="s">
+        <v>13</v>
+      </c>
+      <c r="F146" t="s">
+        <v>21</v>
+      </c>
+      <c r="G146" t="s">
+        <v>370</v>
+      </c>
+      <c r="H146" t="s">
+        <v>466</v>
+      </c>
+      <c r="I146">
+        <v>1199</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>467</v>
+      </c>
+      <c r="B147" s="1">
+        <v>45891</v>
+      </c>
+      <c r="C147" t="s">
+        <v>341</v>
+      </c>
+      <c r="D147" t="s">
+        <v>35</v>
+      </c>
+      <c r="E147" t="s">
+        <v>36</v>
+      </c>
+      <c r="F147" t="s">
+        <v>14</v>
+      </c>
+      <c r="G147" t="s">
+        <v>15</v>
+      </c>
+      <c r="H147" t="s">
+        <v>468</v>
+      </c>
+      <c r="I147">
+        <v>1499</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>469</v>
+      </c>
+      <c r="B148" s="1">
+        <v>45891</v>
+      </c>
+      <c r="C148" t="s">
+        <v>344</v>
+      </c>
+      <c r="D148" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148" t="s">
+        <v>13</v>
+      </c>
+      <c r="F148" t="s">
+        <v>24</v>
+      </c>
+      <c r="G148" t="s">
+        <v>25</v>
+      </c>
+      <c r="H148" t="s">
+        <v>470</v>
+      </c>
+      <c r="I148">
+        <v>399</v>
+      </c>
+      <c r="J148">
+        <v>2</v>
+      </c>
+      <c r="K148">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>471</v>
+      </c>
+      <c r="B149" s="1">
+        <v>45891</v>
+      </c>
+      <c r="C149" t="s">
+        <v>223</v>
+      </c>
+      <c r="D149" t="s">
+        <v>27</v>
+      </c>
+      <c r="E149" t="s">
+        <v>28</v>
+      </c>
+      <c r="F149" t="s">
+        <v>17</v>
+      </c>
+      <c r="G149" t="s">
+        <v>31</v>
+      </c>
+      <c r="H149" t="s">
+        <v>472</v>
+      </c>
+      <c r="I149">
+        <v>299</v>
+      </c>
+      <c r="J149">
+        <v>3</v>
+      </c>
+      <c r="K149">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>473</v>
+      </c>
+      <c r="B150" s="1">
+        <v>45892</v>
+      </c>
+      <c r="C150" t="s">
+        <v>349</v>
+      </c>
+      <c r="D150" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150" t="s">
+        <v>13</v>
+      </c>
+      <c r="F150" t="s">
+        <v>14</v>
+      </c>
+      <c r="G150" t="s">
+        <v>29</v>
+      </c>
+      <c r="H150" t="s">
+        <v>474</v>
+      </c>
+      <c r="I150">
+        <v>3599</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>475</v>
+      </c>
+      <c r="B151" s="1">
+        <v>45892</v>
+      </c>
+      <c r="C151" t="s">
+        <v>352</v>
+      </c>
+      <c r="D151" t="s">
+        <v>20</v>
+      </c>
+      <c r="E151" t="s">
+        <v>13</v>
+      </c>
+      <c r="F151" t="s">
+        <v>37</v>
+      </c>
+      <c r="G151" t="s">
+        <v>38</v>
+      </c>
+      <c r="H151" t="s">
+        <v>476</v>
+      </c>
+      <c r="I151">
+        <v>999</v>
+      </c>
+      <c r="J151">
+        <v>1</v>
+      </c>
+      <c r="K151">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>477</v>
+      </c>
+      <c r="B152" s="1">
+        <v>45896</v>
+      </c>
+      <c r="C152" t="s">
+        <v>355</v>
+      </c>
+      <c r="D152" t="s">
+        <v>12</v>
+      </c>
+      <c r="E152" t="s">
+        <v>13</v>
+      </c>
+      <c r="F152" t="s">
+        <v>14</v>
+      </c>
+      <c r="G152" t="s">
+        <v>29</v>
+      </c>
+      <c r="H152" t="s">
+        <v>478</v>
+      </c>
+      <c r="I152">
+        <v>3999</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="K152">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>479</v>
+      </c>
+      <c r="B153" s="1">
+        <v>45899</v>
+      </c>
+      <c r="C153" t="s">
+        <v>358</v>
+      </c>
+      <c r="D153" t="s">
+        <v>27</v>
+      </c>
+      <c r="E153" t="s">
+        <v>28</v>
+      </c>
+      <c r="F153" t="s">
+        <v>17</v>
+      </c>
+      <c r="G153" t="s">
+        <v>31</v>
+      </c>
+      <c r="H153" t="s">
+        <v>480</v>
+      </c>
+      <c r="I153">
+        <v>799</v>
+      </c>
+      <c r="J153">
+        <v>2</v>
+      </c>
+      <c r="K153">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>481</v>
+      </c>
+      <c r="B154" s="1">
+        <v>45902</v>
+      </c>
+      <c r="C154" t="s">
+        <v>220</v>
+      </c>
+      <c r="D154" t="s">
+        <v>12</v>
+      </c>
+      <c r="E154" t="s">
+        <v>13</v>
+      </c>
+      <c r="F154" t="s">
+        <v>14</v>
+      </c>
+      <c r="G154" t="s">
+        <v>15</v>
+      </c>
+      <c r="H154" t="s">
+        <v>482</v>
+      </c>
+      <c r="I154">
+        <v>1999</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>483</v>
+      </c>
+      <c r="B155" s="1">
+        <v>45905</v>
+      </c>
+      <c r="C155" t="s">
+        <v>363</v>
+      </c>
+      <c r="D155" t="s">
+        <v>35</v>
+      </c>
+      <c r="E155" t="s">
+        <v>36</v>
+      </c>
+      <c r="F155" t="s">
+        <v>37</v>
+      </c>
+      <c r="G155" t="s">
+        <v>38</v>
+      </c>
+      <c r="H155" t="s">
+        <v>484</v>
+      </c>
+      <c r="I155">
+        <v>2299</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="K155">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>485</v>
+      </c>
+      <c r="B156" s="1">
+        <v>45908</v>
+      </c>
+      <c r="C156" t="s">
+        <v>366</v>
+      </c>
+      <c r="D156" t="s">
+        <v>12</v>
+      </c>
+      <c r="E156" t="s">
+        <v>13</v>
+      </c>
+      <c r="F156" t="s">
+        <v>24</v>
+      </c>
+      <c r="G156" t="s">
+        <v>43</v>
+      </c>
+      <c r="H156" t="s">
+        <v>486</v>
+      </c>
+      <c r="I156">
+        <v>699</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+      <c r="K156">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>487</v>
+      </c>
+      <c r="B157" s="1">
+        <v>45911</v>
+      </c>
+      <c r="C157" t="s">
+        <v>369</v>
+      </c>
+      <c r="D157" t="s">
+        <v>27</v>
+      </c>
+      <c r="E157" t="s">
+        <v>28</v>
+      </c>
+      <c r="F157" t="s">
+        <v>14</v>
+      </c>
+      <c r="G157" t="s">
+        <v>67</v>
+      </c>
+      <c r="H157" t="s">
+        <v>488</v>
+      </c>
+      <c r="I157">
+        <v>2499</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+      <c r="K157">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>489</v>
+      </c>
+      <c r="B158" s="1">
+        <v>45914</v>
+      </c>
+      <c r="C158" t="s">
+        <v>373</v>
+      </c>
+      <c r="D158" t="s">
+        <v>12</v>
+      </c>
+      <c r="E158" t="s">
+        <v>13</v>
+      </c>
+      <c r="F158" t="s">
+        <v>17</v>
+      </c>
+      <c r="G158" t="s">
+        <v>18</v>
+      </c>
+      <c r="H158" t="s">
+        <v>490</v>
+      </c>
+      <c r="I158">
+        <v>2199</v>
+      </c>
+      <c r="J158">
+        <v>1</v>
+      </c>
+      <c r="K158">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>491</v>
+      </c>
+      <c r="B159" s="1">
+        <v>45917</v>
+      </c>
+      <c r="C159" t="s">
+        <v>376</v>
+      </c>
+      <c r="D159" t="s">
+        <v>20</v>
+      </c>
+      <c r="E159" t="s">
+        <v>13</v>
+      </c>
+      <c r="F159" t="s">
+        <v>14</v>
+      </c>
+      <c r="G159" t="s">
+        <v>29</v>
+      </c>
+      <c r="H159" t="s">
+        <v>492</v>
+      </c>
+      <c r="I159">
+        <v>3799</v>
+      </c>
+      <c r="J159">
+        <v>1</v>
+      </c>
+      <c r="K159">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>493</v>
+      </c>
+      <c r="B160" s="1">
+        <v>45920</v>
+      </c>
+      <c r="C160" t="s">
+        <v>379</v>
+      </c>
+      <c r="D160" t="s">
+        <v>12</v>
+      </c>
+      <c r="E160" t="s">
+        <v>13</v>
+      </c>
+      <c r="F160" t="s">
+        <v>24</v>
+      </c>
+      <c r="G160" t="s">
+        <v>25</v>
+      </c>
+      <c r="H160" t="s">
+        <v>494</v>
+      </c>
+      <c r="I160">
+        <v>799</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="K160">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>495</v>
+      </c>
+      <c r="B161" s="1">
+        <v>45923</v>
+      </c>
+      <c r="C161" t="s">
+        <v>81</v>
+      </c>
+      <c r="D161" t="s">
+        <v>27</v>
+      </c>
+      <c r="E161" t="s">
+        <v>28</v>
+      </c>
+      <c r="F161" t="s">
+        <v>17</v>
+      </c>
+      <c r="G161" t="s">
+        <v>31</v>
+      </c>
+      <c r="H161" t="s">
+        <v>496</v>
+      </c>
+      <c r="I161">
+        <v>899</v>
+      </c>
+      <c r="J161">
+        <v>2</v>
+      </c>
+      <c r="K161">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>497</v>
+      </c>
+      <c r="B162" s="1">
+        <v>45927</v>
+      </c>
+      <c r="C162" t="s">
+        <v>82</v>
+      </c>
+      <c r="D162" t="s">
+        <v>12</v>
+      </c>
+      <c r="E162" t="s">
+        <v>13</v>
+      </c>
+      <c r="F162" t="s">
+        <v>14</v>
+      </c>
+      <c r="G162" t="s">
+        <v>33</v>
+      </c>
+      <c r="H162" t="s">
+        <v>498</v>
+      </c>
+      <c r="I162">
+        <v>1499</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>499</v>
+      </c>
+      <c r="B163" s="1">
+        <v>45931</v>
+      </c>
+      <c r="C163" t="s">
+        <v>386</v>
+      </c>
+      <c r="D163" t="s">
+        <v>35</v>
+      </c>
+      <c r="E163" t="s">
+        <v>36</v>
+      </c>
+      <c r="F163" t="s">
+        <v>21</v>
+      </c>
+      <c r="G163" t="s">
+        <v>74</v>
+      </c>
+      <c r="H163" t="s">
+        <v>500</v>
+      </c>
+      <c r="I163">
+        <v>2999</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>501</v>
+      </c>
+      <c r="B164" s="1">
+        <v>45935</v>
+      </c>
+      <c r="C164" t="s">
+        <v>84</v>
+      </c>
+      <c r="D164" t="s">
+        <v>12</v>
+      </c>
+      <c r="E164" t="s">
+        <v>13</v>
+      </c>
+      <c r="F164" t="s">
+        <v>17</v>
+      </c>
+      <c r="G164" t="s">
+        <v>59</v>
+      </c>
+      <c r="H164" t="s">
+        <v>502</v>
+      </c>
+      <c r="I164">
+        <v>3899</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>503</v>
+      </c>
+      <c r="B165" s="1">
+        <v>45939</v>
+      </c>
+      <c r="C165" t="s">
+        <v>391</v>
+      </c>
+      <c r="D165" t="s">
+        <v>27</v>
+      </c>
+      <c r="E165" t="s">
+        <v>28</v>
+      </c>
+      <c r="F165" t="s">
+        <v>14</v>
+      </c>
+      <c r="G165" t="s">
+        <v>15</v>
+      </c>
+      <c r="H165" t="s">
+        <v>504</v>
+      </c>
+      <c r="I165">
+        <v>5199</v>
+      </c>
+      <c r="J165">
+        <v>1</v>
+      </c>
+      <c r="K165">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>505</v>
+      </c>
+      <c r="B166" s="1">
+        <v>45943</v>
+      </c>
+      <c r="C166" t="s">
+        <v>394</v>
+      </c>
+      <c r="D166" t="s">
+        <v>12</v>
+      </c>
+      <c r="E166" t="s">
+        <v>13</v>
+      </c>
+      <c r="F166" t="s">
+        <v>24</v>
+      </c>
+      <c r="G166" t="s">
+        <v>56</v>
+      </c>
+      <c r="H166" t="s">
+        <v>506</v>
+      </c>
+      <c r="I166">
+        <v>1399</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+      <c r="K166">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>507</v>
+      </c>
+      <c r="B167" s="1">
+        <v>45947</v>
+      </c>
+      <c r="C167" t="s">
+        <v>397</v>
+      </c>
+      <c r="D167" t="s">
+        <v>20</v>
+      </c>
+      <c r="E167" t="s">
+        <v>13</v>
+      </c>
+      <c r="F167" t="s">
+        <v>37</v>
+      </c>
+      <c r="G167" t="s">
+        <v>38</v>
+      </c>
+      <c r="H167" t="s">
+        <v>508</v>
+      </c>
+      <c r="I167">
+        <v>1599</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+      <c r="K167">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>509</v>
+      </c>
+      <c r="B168" s="1">
+        <v>45951</v>
+      </c>
+      <c r="C168" t="s">
+        <v>400</v>
+      </c>
+      <c r="D168" t="s">
+        <v>12</v>
+      </c>
+      <c r="E168" t="s">
+        <v>13</v>
+      </c>
+      <c r="F168" t="s">
+        <v>14</v>
+      </c>
+      <c r="G168" t="s">
+        <v>29</v>
+      </c>
+      <c r="H168" t="s">
+        <v>510</v>
+      </c>
+      <c r="I168">
+        <v>6799</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="K168">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>511</v>
+      </c>
+      <c r="B169" s="1">
+        <v>45955</v>
+      </c>
+      <c r="C169" t="s">
+        <v>403</v>
+      </c>
+      <c r="D169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E169" t="s">
+        <v>28</v>
+      </c>
+      <c r="F169" t="s">
+        <v>17</v>
+      </c>
+      <c r="G169" t="s">
+        <v>18</v>
+      </c>
+      <c r="H169" t="s">
+        <v>512</v>
+      </c>
+      <c r="I169">
+        <v>2499</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>513</v>
+      </c>
+      <c r="B170" s="1">
+        <v>45959</v>
+      </c>
+      <c r="C170" t="s">
+        <v>406</v>
+      </c>
+      <c r="D170" t="s">
+        <v>12</v>
+      </c>
+      <c r="E170" t="s">
+        <v>13</v>
+      </c>
+      <c r="F170" t="s">
+        <v>24</v>
+      </c>
+      <c r="G170" t="s">
+        <v>25</v>
+      </c>
+      <c r="H170" t="s">
+        <v>514</v>
+      </c>
+      <c r="I170">
+        <v>599</v>
+      </c>
+      <c r="J170">
+        <v>3</v>
+      </c>
+      <c r="K170">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>515</v>
+      </c>
+      <c r="B171" s="1">
+        <v>45963</v>
+      </c>
+      <c r="C171" t="s">
+        <v>409</v>
+      </c>
+      <c r="D171" t="s">
+        <v>35</v>
+      </c>
+      <c r="E171" t="s">
+        <v>36</v>
+      </c>
+      <c r="F171" t="s">
+        <v>14</v>
+      </c>
+      <c r="G171" t="s">
+        <v>15</v>
+      </c>
+      <c r="H171" t="s">
+        <v>516</v>
+      </c>
+      <c r="I171">
+        <v>4999</v>
+      </c>
+      <c r="J171">
+        <v>1</v>
+      </c>
+      <c r="K171">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>517</v>
+      </c>
+      <c r="B172" s="1">
+        <v>45966</v>
+      </c>
+      <c r="C172" t="s">
+        <v>39</v>
+      </c>
+      <c r="D172" t="s">
+        <v>12</v>
+      </c>
+      <c r="E172" t="s">
+        <v>13</v>
+      </c>
+      <c r="F172" t="s">
+        <v>17</v>
+      </c>
+      <c r="G172" t="s">
+        <v>59</v>
+      </c>
+      <c r="H172" t="s">
+        <v>518</v>
+      </c>
+      <c r="I172">
+        <v>6599</v>
+      </c>
+      <c r="J172">
+        <v>1</v>
+      </c>
+      <c r="K172">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>519</v>
+      </c>
+      <c r="B173" s="1">
+        <v>45969</v>
+      </c>
+      <c r="C173" t="s">
+        <v>414</v>
+      </c>
+      <c r="D173" t="s">
+        <v>27</v>
+      </c>
+      <c r="E173" t="s">
+        <v>28</v>
+      </c>
+      <c r="F173" t="s">
+        <v>14</v>
+      </c>
+      <c r="G173" t="s">
+        <v>29</v>
+      </c>
+      <c r="H173" t="s">
+        <v>520</v>
+      </c>
+      <c r="I173">
+        <v>6399</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+      <c r="K173">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>521</v>
+      </c>
+      <c r="B174" s="1">
+        <v>45972</v>
+      </c>
+      <c r="C174" t="s">
+        <v>417</v>
+      </c>
+      <c r="D174" t="s">
+        <v>12</v>
+      </c>
+      <c r="E174" t="s">
+        <v>13</v>
+      </c>
+      <c r="F174" t="s">
+        <v>24</v>
+      </c>
+      <c r="G174" t="s">
+        <v>25</v>
+      </c>
+      <c r="H174" t="s">
+        <v>522</v>
+      </c>
+      <c r="I174">
+        <v>1899</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>523</v>
+      </c>
+      <c r="B175" s="1">
+        <v>45975</v>
+      </c>
+      <c r="C175" t="s">
+        <v>420</v>
+      </c>
+      <c r="D175" t="s">
+        <v>20</v>
+      </c>
+      <c r="E175" t="s">
+        <v>13</v>
+      </c>
+      <c r="F175" t="s">
+        <v>21</v>
+      </c>
+      <c r="G175" t="s">
+        <v>68</v>
+      </c>
+      <c r="H175" t="s">
+        <v>524</v>
+      </c>
+      <c r="I175">
+        <v>6799</v>
+      </c>
+      <c r="J175">
+        <v>1</v>
+      </c>
+      <c r="K175">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>525</v>
+      </c>
+      <c r="B176" s="1">
+        <v>45978</v>
+      </c>
+      <c r="C176" t="s">
+        <v>424</v>
+      </c>
+      <c r="D176" t="s">
+        <v>12</v>
+      </c>
+      <c r="E176" t="s">
+        <v>13</v>
+      </c>
+      <c r="F176" t="s">
+        <v>17</v>
+      </c>
+      <c r="G176" t="s">
+        <v>18</v>
+      </c>
+      <c r="H176" t="s">
+        <v>526</v>
+      </c>
+      <c r="I176">
+        <v>2999</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>527</v>
+      </c>
+      <c r="B177" s="1">
+        <v>45981</v>
+      </c>
+      <c r="C177" t="s">
+        <v>427</v>
+      </c>
+      <c r="D177" t="s">
+        <v>27</v>
+      </c>
+      <c r="E177" t="s">
+        <v>28</v>
+      </c>
+      <c r="F177" t="s">
+        <v>14</v>
+      </c>
+      <c r="G177" t="s">
+        <v>49</v>
+      </c>
+      <c r="H177" t="s">
+        <v>528</v>
+      </c>
+      <c r="I177">
+        <v>3399</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>529</v>
+      </c>
+      <c r="B178" s="1">
+        <v>45984</v>
+      </c>
+      <c r="C178" t="s">
+        <v>430</v>
+      </c>
+      <c r="D178" t="s">
+        <v>12</v>
+      </c>
+      <c r="E178" t="s">
+        <v>13</v>
+      </c>
+      <c r="F178" t="s">
+        <v>24</v>
+      </c>
+      <c r="G178" t="s">
+        <v>43</v>
+      </c>
+      <c r="H178" t="s">
+        <v>530</v>
+      </c>
+      <c r="I178">
+        <v>4199</v>
+      </c>
+      <c r="J178">
+        <v>1</v>
+      </c>
+      <c r="K178">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>531</v>
+      </c>
+      <c r="B179" s="1">
+        <v>45986</v>
+      </c>
+      <c r="C179" t="s">
+        <v>26</v>
+      </c>
+      <c r="D179" t="s">
+        <v>35</v>
+      </c>
+      <c r="E179" t="s">
+        <v>36</v>
+      </c>
+      <c r="F179" t="s">
+        <v>37</v>
+      </c>
+      <c r="G179" t="s">
+        <v>38</v>
+      </c>
+      <c r="H179" t="s">
+        <v>532</v>
+      </c>
+      <c r="I179">
+        <v>5999</v>
+      </c>
+      <c r="J179">
+        <v>1</v>
+      </c>
+      <c r="K179">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>533</v>
+      </c>
+      <c r="B180" s="1">
+        <v>45988</v>
+      </c>
+      <c r="C180" t="s">
+        <v>435</v>
+      </c>
+      <c r="D180" t="s">
+        <v>12</v>
+      </c>
+      <c r="E180" t="s">
+        <v>13</v>
+      </c>
+      <c r="F180" t="s">
+        <v>14</v>
+      </c>
+      <c r="G180" t="s">
+        <v>15</v>
+      </c>
+      <c r="H180" t="s">
+        <v>534</v>
+      </c>
+      <c r="I180">
+        <v>6199</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+      <c r="K180">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>535</v>
+      </c>
+      <c r="B181" s="1">
+        <v>45989</v>
+      </c>
+      <c r="C181" t="s">
+        <v>217</v>
+      </c>
+      <c r="D181" t="s">
+        <v>27</v>
+      </c>
+      <c r="E181" t="s">
+        <v>28</v>
+      </c>
+      <c r="F181" t="s">
+        <v>17</v>
+      </c>
+      <c r="G181" t="s">
+        <v>31</v>
+      </c>
+      <c r="H181" t="s">
+        <v>536</v>
+      </c>
+      <c r="I181">
+        <v>3499</v>
+      </c>
+      <c r="J181">
+        <v>1</v>
+      </c>
+      <c r="K181">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>537</v>
+      </c>
+      <c r="B182" s="1">
+        <v>45989</v>
+      </c>
+      <c r="C182" t="s">
+        <v>440</v>
+      </c>
+      <c r="D182" t="s">
+        <v>12</v>
+      </c>
+      <c r="E182" t="s">
+        <v>13</v>
+      </c>
+      <c r="F182" t="s">
+        <v>24</v>
+      </c>
+      <c r="G182" t="s">
+        <v>56</v>
+      </c>
+      <c r="H182" t="s">
+        <v>538</v>
+      </c>
+      <c r="I182">
+        <v>2299</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="K182">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>539</v>
+      </c>
+      <c r="B183" s="1">
+        <v>45989</v>
+      </c>
+      <c r="C183" t="s">
+        <v>443</v>
+      </c>
+      <c r="D183" t="s">
+        <v>20</v>
+      </c>
+      <c r="E183" t="s">
+        <v>13</v>
+      </c>
+      <c r="F183" t="s">
+        <v>14</v>
+      </c>
+      <c r="G183" t="s">
+        <v>29</v>
+      </c>
+      <c r="H183" t="s">
+        <v>540</v>
+      </c>
+      <c r="I183">
+        <v>6999</v>
+      </c>
+      <c r="J183">
+        <v>1</v>
+      </c>
+      <c r="K183">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>541</v>
+      </c>
+      <c r="B184" s="1">
+        <v>45990</v>
+      </c>
+      <c r="C184" t="s">
+        <v>446</v>
+      </c>
+      <c r="D184" t="s">
+        <v>12</v>
+      </c>
+      <c r="E184" t="s">
+        <v>13</v>
+      </c>
+      <c r="F184" t="s">
+        <v>17</v>
+      </c>
+      <c r="G184" t="s">
+        <v>59</v>
+      </c>
+      <c r="H184" t="s">
+        <v>542</v>
+      </c>
+      <c r="I184">
+        <v>5799</v>
+      </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="K184">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>543</v>
+      </c>
+      <c r="B185" s="1">
+        <v>45990</v>
+      </c>
+      <c r="C185" t="s">
+        <v>229</v>
+      </c>
+      <c r="D185" t="s">
+        <v>27</v>
+      </c>
+      <c r="E185" t="s">
+        <v>28</v>
+      </c>
+      <c r="F185" t="s">
+        <v>21</v>
+      </c>
+      <c r="G185" t="s">
+        <v>79</v>
+      </c>
+      <c r="H185" t="s">
+        <v>544</v>
+      </c>
+      <c r="I185">
+        <v>6399</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>545</v>
+      </c>
+      <c r="B186" s="1">
+        <v>45990</v>
+      </c>
+      <c r="C186" t="s">
+        <v>451</v>
+      </c>
+      <c r="D186" t="s">
+        <v>12</v>
+      </c>
+      <c r="E186" t="s">
+        <v>13</v>
+      </c>
+      <c r="F186" t="s">
+        <v>14</v>
+      </c>
+      <c r="G186" t="s">
+        <v>15</v>
+      </c>
+      <c r="H186" t="s">
+        <v>546</v>
+      </c>
+      <c r="I186">
+        <v>6799</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="K186">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>547</v>
+      </c>
+      <c r="B187" s="1">
+        <v>45991</v>
+      </c>
+      <c r="C187" t="s">
+        <v>323</v>
+      </c>
+      <c r="D187" t="s">
+        <v>35</v>
+      </c>
+      <c r="E187" t="s">
+        <v>36</v>
+      </c>
+      <c r="F187" t="s">
+        <v>17</v>
+      </c>
+      <c r="G187" t="s">
+        <v>18</v>
+      </c>
+      <c r="H187" t="s">
+        <v>548</v>
+      </c>
+      <c r="I187">
+        <v>2799</v>
+      </c>
+      <c r="J187">
+        <v>1</v>
+      </c>
+      <c r="K187">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>549</v>
+      </c>
+      <c r="B188" s="1">
+        <v>45991</v>
+      </c>
+      <c r="C188" t="s">
+        <v>456</v>
+      </c>
+      <c r="D188" t="s">
+        <v>12</v>
+      </c>
+      <c r="E188" t="s">
+        <v>13</v>
+      </c>
+      <c r="F188" t="s">
+        <v>24</v>
+      </c>
+      <c r="G188" t="s">
+        <v>25</v>
+      </c>
+      <c r="H188" t="s">
+        <v>550</v>
+      </c>
+      <c r="I188">
+        <v>899</v>
+      </c>
+      <c r="J188">
+        <v>2</v>
+      </c>
+      <c r="K188">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>551</v>
+      </c>
+      <c r="B189" s="1">
+        <v>45992</v>
+      </c>
+      <c r="C189" t="s">
+        <v>242</v>
+      </c>
+      <c r="D189" t="s">
+        <v>27</v>
+      </c>
+      <c r="E189" t="s">
+        <v>28</v>
+      </c>
+      <c r="F189" t="s">
+        <v>14</v>
+      </c>
+      <c r="G189" t="s">
+        <v>49</v>
+      </c>
+      <c r="H189" t="s">
+        <v>552</v>
+      </c>
+      <c r="I189">
+        <v>2599</v>
+      </c>
+      <c r="J189">
+        <v>1</v>
+      </c>
+      <c r="K189">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>553</v>
+      </c>
+      <c r="B190" s="1">
+        <v>45992</v>
+      </c>
+      <c r="C190" t="s">
+        <v>461</v>
+      </c>
+      <c r="D190" t="s">
+        <v>12</v>
+      </c>
+      <c r="E190" t="s">
+        <v>13</v>
+      </c>
+      <c r="F190" t="s">
+        <v>17</v>
+      </c>
+      <c r="G190" t="s">
+        <v>31</v>
+      </c>
+      <c r="H190" t="s">
+        <v>554</v>
+      </c>
+      <c r="I190">
+        <v>2899</v>
+      </c>
+      <c r="J190">
+        <v>1</v>
+      </c>
+      <c r="K190">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>555</v>
+      </c>
+      <c r="B191" s="1">
+        <v>45992</v>
+      </c>
+      <c r="C191" t="s">
+        <v>326</v>
+      </c>
+      <c r="D191" t="s">
+        <v>20</v>
+      </c>
+      <c r="E191" t="s">
+        <v>13</v>
+      </c>
+      <c r="F191" t="s">
+        <v>37</v>
+      </c>
+      <c r="G191" t="s">
+        <v>38</v>
+      </c>
+      <c r="H191" t="s">
+        <v>556</v>
+      </c>
+      <c r="I191">
+        <v>6499</v>
+      </c>
+      <c r="J191">
+        <v>1</v>
+      </c>
+      <c r="K191">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>557</v>
+      </c>
+      <c r="B192" s="1">
+        <v>45993</v>
+      </c>
+      <c r="C192" t="s">
+        <v>335</v>
+      </c>
+      <c r="D192" t="s">
+        <v>12</v>
+      </c>
+      <c r="E192" t="s">
+        <v>13</v>
+      </c>
+      <c r="F192" t="s">
+        <v>14</v>
+      </c>
+      <c r="G192" t="s">
+        <v>15</v>
+      </c>
+      <c r="H192" t="s">
+        <v>558</v>
+      </c>
+      <c r="I192">
+        <v>6599</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="K192">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>559</v>
+      </c>
+      <c r="B193" s="1">
+        <v>45993</v>
+      </c>
+      <c r="C193" t="s">
+        <v>341</v>
+      </c>
+      <c r="D193" t="s">
+        <v>27</v>
+      </c>
+      <c r="E193" t="s">
+        <v>28</v>
+      </c>
+      <c r="F193" t="s">
+        <v>24</v>
+      </c>
+      <c r="G193" t="s">
+        <v>25</v>
+      </c>
+      <c r="H193" t="s">
+        <v>560</v>
+      </c>
+      <c r="I193">
+        <v>1499</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>561</v>
+      </c>
+      <c r="B194" s="1">
+        <v>45993</v>
+      </c>
+      <c r="C194" t="s">
+        <v>344</v>
+      </c>
+      <c r="D194" t="s">
+        <v>12</v>
+      </c>
+      <c r="E194" t="s">
+        <v>13</v>
+      </c>
+      <c r="F194" t="s">
+        <v>17</v>
+      </c>
+      <c r="G194" t="s">
+        <v>59</v>
+      </c>
+      <c r="H194" t="s">
+        <v>562</v>
+      </c>
+      <c r="I194">
+        <v>5399</v>
+      </c>
+      <c r="J194">
+        <v>1</v>
+      </c>
+      <c r="K194">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>563</v>
+      </c>
+      <c r="B195" s="1">
+        <v>45993</v>
+      </c>
+      <c r="C195" t="s">
+        <v>223</v>
+      </c>
+      <c r="D195" t="s">
+        <v>35</v>
+      </c>
+      <c r="E195" t="s">
+        <v>36</v>
+      </c>
+      <c r="F195" t="s">
+        <v>14</v>
+      </c>
+      <c r="G195" t="s">
+        <v>29</v>
+      </c>
+      <c r="H195" t="s">
+        <v>564</v>
+      </c>
+      <c r="I195">
+        <v>6199</v>
+      </c>
+      <c r="J195">
+        <v>1</v>
+      </c>
+      <c r="K195">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>565</v>
+      </c>
+      <c r="B196" s="1">
+        <v>45993</v>
+      </c>
+      <c r="C196" t="s">
+        <v>349</v>
+      </c>
+      <c r="D196" t="s">
+        <v>12</v>
+      </c>
+      <c r="E196" t="s">
+        <v>13</v>
+      </c>
+      <c r="F196" t="s">
+        <v>24</v>
+      </c>
+      <c r="G196" t="s">
+        <v>56</v>
+      </c>
+      <c r="H196" t="s">
+        <v>566</v>
+      </c>
+      <c r="I196">
+        <v>2199</v>
+      </c>
+      <c r="J196">
+        <v>1</v>
+      </c>
+      <c r="K196">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>567</v>
+      </c>
+      <c r="B197" s="1">
+        <v>45993</v>
+      </c>
+      <c r="C197" t="s">
+        <v>352</v>
+      </c>
+      <c r="D197" t="s">
+        <v>27</v>
+      </c>
+      <c r="E197" t="s">
+        <v>28</v>
+      </c>
+      <c r="F197" t="s">
+        <v>21</v>
+      </c>
+      <c r="G197" t="s">
+        <v>68</v>
+      </c>
+      <c r="H197" t="s">
+        <v>568</v>
+      </c>
+      <c r="I197">
+        <v>6699</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
+      </c>
+      <c r="K197">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>569</v>
+      </c>
+      <c r="B198" s="1">
+        <v>45993</v>
+      </c>
+      <c r="C198" t="s">
+        <v>355</v>
+      </c>
+      <c r="D198" t="s">
+        <v>12</v>
+      </c>
+      <c r="E198" t="s">
+        <v>13</v>
+      </c>
+      <c r="F198" t="s">
+        <v>17</v>
+      </c>
+      <c r="G198" t="s">
+        <v>18</v>
+      </c>
+      <c r="H198" t="s">
+        <v>570</v>
+      </c>
+      <c r="I198">
+        <v>2599</v>
+      </c>
+      <c r="J198">
+        <v>1</v>
+      </c>
+      <c r="K198">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>571</v>
+      </c>
+      <c r="B199" s="1">
+        <v>45993</v>
+      </c>
+      <c r="C199" t="s">
+        <v>358</v>
+      </c>
+      <c r="D199" t="s">
+        <v>20</v>
+      </c>
+      <c r="E199" t="s">
+        <v>13</v>
+      </c>
+      <c r="F199" t="s">
+        <v>14</v>
+      </c>
+      <c r="G199" t="s">
+        <v>15</v>
+      </c>
+      <c r="H199" t="s">
+        <v>572</v>
+      </c>
+      <c r="I199">
+        <v>6999</v>
+      </c>
+      <c r="J199">
+        <v>1</v>
+      </c>
+      <c r="K199">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>573</v>
+      </c>
+      <c r="B200" s="1">
+        <v>45993</v>
+      </c>
+      <c r="C200" t="s">
+        <v>220</v>
+      </c>
+      <c r="D200" t="s">
+        <v>12</v>
+      </c>
+      <c r="E200" t="s">
+        <v>13</v>
+      </c>
+      <c r="F200" t="s">
+        <v>24</v>
+      </c>
+      <c r="G200" t="s">
+        <v>25</v>
+      </c>
+      <c r="H200" t="s">
+        <v>574</v>
+      </c>
+      <c r="I200">
+        <v>1799</v>
+      </c>
+      <c r="J200">
+        <v>1</v>
+      </c>
+      <c r="K200">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>575</v>
+      </c>
+      <c r="B201" s="1">
+        <v>45993</v>
+      </c>
+      <c r="C201" t="s">
+        <v>363</v>
+      </c>
+      <c r="D201" t="s">
+        <v>27</v>
+      </c>
+      <c r="E201" t="s">
+        <v>28</v>
+      </c>
+      <c r="F201" t="s">
+        <v>17</v>
+      </c>
+      <c r="G201" t="s">
+        <v>31</v>
+      </c>
+      <c r="H201" t="s">
+        <v>576</v>
+      </c>
+      <c r="I201">
+        <v>3999</v>
+      </c>
+      <c r="J201">
+        <v>1</v>
+      </c>
+      <c r="K201">
+        <v>1590</v>
       </c>
     </row>
   </sheetData>
